--- a/webapp/output/mobper/MobPer_8490_20260116.xlsx
+++ b/webapp/output/mobper/MobPer_8490_20260116.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulc\Downloads\debug biostar para checadores\webapp\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulc\Downloads\debug biostar para checadores\webapp\output\mobper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1E5ADE-1042-46EA-8841-478E2012604D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0564D15A-2881-4466-A45D-D2F8413EDA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="100">
   <si>
     <t>Fecha de Autorizacion</t>
   </si>
@@ -329,13 +329,22 @@
     <t>Se eliminó el apartado llenado exclusivo para recursos humanos</t>
   </si>
   <si>
-    <t>Raul Abel Cetina Pool</t>
-  </si>
-  <si>
     <t>Carlos Medina</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2,5,6,7,8,9,12,15 retardo justificado. 1ro falta justificada, Guardia telefónico. 13 y 14 falta justificada, trabajo remoto.</t>
+    <t>RAÚL CETINA</t>
+  </si>
+  <si>
+    <t>DISEÑO</t>
+  </si>
+  <si>
+    <t>16,19,20,21,22,27,28 de enero</t>
+  </si>
+  <si>
+    <t>16, 19-22, 27,28 retardo justificado.</t>
+  </si>
+  <si>
+    <t>Raúl Cetina</t>
   </si>
 </sst>
 </file>
@@ -1001,278 +1010,338 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="12" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1322,65 +1391,29 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="12" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1401,30 +1434,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3026,9 +3035,7 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
@@ -3037,6 +3044,15 @@
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr/>
@@ -3097,6 +3113,15 @@
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
@@ -3135,9 +3160,7 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
@@ -3146,6 +3169,15 @@
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
@@ -3184,9 +3216,7 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
@@ -3195,6 +3225,15 @@
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
@@ -3234,7 +3273,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:srgbClr val="000000"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -3448,7 +3487,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:srgbClr val="000000"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -3505,6 +3544,15 @@
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
@@ -5521,70 +5569,70 @@
     </row>
     <row r="4" spans="1:20" ht="15.6">
       <c r="A4" s="47"/>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="98"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="128"/>
       <c r="T4" s="48"/>
     </row>
     <row r="5" spans="1:20" ht="14.4" thickBot="1">
       <c r="A5" s="47"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="101"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="131"/>
       <c r="T5" s="48"/>
     </row>
     <row r="6" spans="1:20" ht="5.25" customHeight="1">
       <c r="A6" s="47"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="104"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="134"/>
       <c r="T6" s="48"/>
     </row>
     <row r="7" spans="1:20" ht="2.25" customHeight="1">
@@ -5596,30 +5644,30 @@
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="A8" s="47"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="121" t="s">
+      <c r="D8" s="137"/>
+      <c r="E8" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="123"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="151"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="115" t="s">
+      <c r="O8" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="120" t="s">
+      <c r="P8" s="145"/>
+      <c r="Q8" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="R8" s="120"/>
+      <c r="R8" s="109"/>
       <c r="S8" s="39"/>
       <c r="T8" s="48"/>
     </row>
@@ -5655,21 +5703,21 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="143" t="s">
+      <c r="H10" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="145"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="97"/>
       <c r="L10" s="8"/>
       <c r="M10" s="12" t="s">
         <v>33</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
       <c r="S10" s="39"/>
       <c r="T10" s="48"/>
     </row>
@@ -5703,26 +5751,26 @@
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
       <c r="A13" s="47"/>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="105"/>
-      <c r="S13" s="105"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="112"/>
       <c r="T13" s="48"/>
     </row>
     <row r="14" spans="1:20" ht="5.25" customHeight="1">
@@ -5798,46 +5846,46 @@
     <row r="20" spans="1:20" ht="11.25" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="138" t="s">
+      <c r="C20" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="111"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="139"/>
+      <c r="R20" s="140"/>
       <c r="S20" s="4"/>
       <c r="T20" s="48"/>
     </row>
     <row r="21" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A21" s="47"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="114"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="142"/>
+      <c r="P21" s="142"/>
+      <c r="Q21" s="142"/>
+      <c r="R21" s="143"/>
       <c r="S21" s="4"/>
       <c r="T21" s="48"/>
     </row>
@@ -5849,26 +5897,26 @@
     </row>
     <row r="23" spans="1:20" ht="13.8">
       <c r="A23" s="47"/>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="105"/>
-      <c r="R23" s="105"/>
-      <c r="S23" s="105"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="112"/>
       <c r="T23" s="48"/>
     </row>
     <row r="24" spans="1:20" ht="7.5" customHeight="1">
@@ -5932,28 +5980,28 @@
     <row r="27" spans="1:20" ht="15.75" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="118" t="s">
+      <c r="C27" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="118"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="142" t="s">
+      <c r="D27" s="147"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="117" t="s">
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="L27" s="118"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
       <c r="S27" s="16"/>
       <c r="T27" s="48"/>
     </row>
@@ -5982,46 +6030,46 @@
     <row r="29" spans="1:20" ht="13.8">
       <c r="A29" s="47"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="124" t="s">
+      <c r="C29" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="124"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="132"/>
-      <c r="Q29" s="132"/>
-      <c r="R29" s="133"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="122"/>
       <c r="S29" s="16"/>
       <c r="T29" s="48"/>
     </row>
     <row r="30" spans="1:20" ht="14.25" customHeight="1">
       <c r="A30" s="47"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="135"/>
-      <c r="K30" s="135"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="135"/>
-      <c r="N30" s="135"/>
-      <c r="O30" s="135"/>
-      <c r="P30" s="135"/>
-      <c r="Q30" s="135"/>
-      <c r="R30" s="136"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="124"/>
+      <c r="P30" s="124"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="125"/>
       <c r="S30" s="17"/>
       <c r="T30" s="48"/>
     </row>
@@ -6050,50 +6098,50 @@
     <row r="32" spans="1:20" ht="12.75" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="124" t="s">
+      <c r="C32" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="124"/>
-      <c r="E32" s="120" t="s">
+      <c r="D32" s="110"/>
+      <c r="E32" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="120"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="124" t="s">
+      <c r="K32" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="125"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="91"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="94"/>
       <c r="S32" s="16"/>
       <c r="T32" s="48"/>
     </row>
     <row r="33" spans="1:28" ht="11.25" customHeight="1">
       <c r="A33" s="47"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="120"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="91"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
       <c r="S33" s="16"/>
       <c r="T33" s="48"/>
     </row>
@@ -6127,9 +6175,9 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
       <c r="I35" s="8" t="s">
         <v>32</v>
       </c>
@@ -6139,8 +6187,8 @@
       </c>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="106"/>
+      <c r="N35" s="135"/>
+      <c r="O35" s="135"/>
       <c r="P35" s="8" t="s">
         <v>32</v>
       </c>
@@ -6176,28 +6224,28 @@
     <row r="37" spans="1:28" ht="18" customHeight="1">
       <c r="A37" s="47"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="127" t="s">
+      <c r="C37" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="128"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="126" t="s">
+      <c r="D37" s="115"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="L37" s="93"/>
-      <c r="M37" s="130"/>
-      <c r="N37" s="130"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="119"/>
       <c r="O37" s="19"/>
       <c r="P37" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="Q37" s="130"/>
-      <c r="R37" s="130"/>
+      <c r="Q37" s="119"/>
+      <c r="R37" s="119"/>
       <c r="S37" s="16"/>
       <c r="T37" s="48"/>
       <c r="U37">
@@ -6228,26 +6276,26 @@
     </row>
     <row r="39" spans="1:28" ht="17.25" customHeight="1">
       <c r="A39" s="47"/>
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
-      <c r="O39" s="105"/>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="105"/>
-      <c r="R39" s="105"/>
-      <c r="S39" s="105"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="112"/>
+      <c r="H39" s="112"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="112"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="112"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="112"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="112"/>
+      <c r="R39" s="112"/>
+      <c r="S39" s="112"/>
       <c r="T39" s="48"/>
     </row>
     <row r="40" spans="1:28" ht="6" customHeight="1">
@@ -6280,23 +6328,23 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="92" t="s">
+      <c r="J41" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="K41" s="93"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
       <c r="N41" s="8"/>
-      <c r="O41" s="92" t="s">
+      <c r="O41" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="91"/>
-      <c r="R41" s="91"/>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="94"/>
       <c r="S41" s="16"/>
       <c r="T41" s="48"/>
     </row>
@@ -6336,15 +6384,15 @@
       <c r="I43" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="91"/>
-      <c r="L43" s="91"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="94"/>
       <c r="M43" s="8"/>
-      <c r="N43" s="90" t="s">
+      <c r="N43" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="90"/>
-      <c r="P43" s="94"/>
-      <c r="Q43" s="95"/>
+      <c r="O43" s="104"/>
+      <c r="P43" s="116"/>
+      <c r="Q43" s="118"/>
       <c r="R43" s="8"/>
       <c r="S43" s="16"/>
       <c r="T43" s="48"/>
@@ -6377,18 +6425,18 @@
       <c r="C45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="151"/>
-      <c r="H45" s="151"/>
-      <c r="I45" s="151"/>
-      <c r="L45" s="90" t="s">
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="L45" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="M45" s="90"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="152"/>
-      <c r="P45" s="151"/>
-      <c r="Q45" s="151"/>
-      <c r="R45" s="151"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="103"/>
+      <c r="Q45" s="103"/>
+      <c r="R45" s="103"/>
       <c r="S45" s="16"/>
       <c r="T45" s="48"/>
       <c r="U45" s="5"/>
@@ -6438,20 +6486,20 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="91"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="126" t="s">
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="O47" s="92"/>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="91"/>
-      <c r="R47" s="91"/>
+      <c r="O47" s="107"/>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="94"/>
+      <c r="R47" s="94"/>
       <c r="S47" s="16"/>
       <c r="T47" s="48"/>
       <c r="U47" s="5"/>
@@ -6496,24 +6544,24 @@
     <row r="49" spans="1:28" ht="13.8">
       <c r="A49" s="47"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="149" t="s">
+      <c r="C49" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="149"/>
-      <c r="E49" s="149"/>
-      <c r="F49" s="149"/>
-      <c r="G49" s="149"/>
-      <c r="H49" s="149"/>
-      <c r="I49" s="149"/>
-      <c r="J49" s="149"/>
-      <c r="K49" s="149"/>
-      <c r="L49" s="149"/>
-      <c r="M49" s="149"/>
-      <c r="N49" s="149"/>
-      <c r="O49" s="149"/>
-      <c r="P49" s="149"/>
-      <c r="Q49" s="149"/>
-      <c r="R49" s="149"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="101"/>
+      <c r="J49" s="101"/>
+      <c r="K49" s="101"/>
+      <c r="L49" s="101"/>
+      <c r="M49" s="101"/>
+      <c r="N49" s="101"/>
+      <c r="O49" s="101"/>
+      <c r="P49" s="101"/>
+      <c r="Q49" s="101"/>
+      <c r="R49" s="101"/>
       <c r="S49" s="16"/>
       <c r="T49" s="48"/>
       <c r="U49" s="5"/>
@@ -6558,16 +6606,16 @@
     <row r="51" spans="1:28" ht="15.75" customHeight="1">
       <c r="A51" s="47"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="146" t="s">
+      <c r="C51" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="147"/>
+      <c r="D51" s="99"/>
       <c r="E51" s="25"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="147" t="s">
+      <c r="G51" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="H51" s="150"/>
+      <c r="H51" s="102"/>
       <c r="I51" s="25"/>
       <c r="J51" s="24"/>
       <c r="K51" s="12" t="s">
@@ -6576,8 +6624,8 @@
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
-      <c r="O51" s="151"/>
-      <c r="P51" s="151"/>
+      <c r="O51" s="103"/>
+      <c r="P51" s="103"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="16"/>
       <c r="S51" s="16"/>
@@ -6624,24 +6672,24 @@
     <row r="53" spans="1:28" ht="16.05" customHeight="1">
       <c r="A53" s="47"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="146" t="s">
+      <c r="C53" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="147"/>
-      <c r="E53" s="147"/>
-      <c r="F53" s="147"/>
-      <c r="G53" s="148"/>
-      <c r="H53" s="148"/>
-      <c r="I53" s="148"/>
-      <c r="J53" s="148"/>
-      <c r="K53" s="148"/>
-      <c r="L53" s="148"/>
-      <c r="M53" s="148"/>
-      <c r="N53" s="148"/>
-      <c r="O53" s="148"/>
-      <c r="P53" s="148"/>
-      <c r="Q53" s="148"/>
-      <c r="R53" s="148"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="100"/>
+      <c r="K53" s="100"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="100"/>
+      <c r="O53" s="100"/>
+      <c r="P53" s="100"/>
+      <c r="Q53" s="100"/>
+      <c r="R53" s="100"/>
       <c r="S53" s="16"/>
       <c r="T53" s="48"/>
       <c r="U53" s="5"/>
@@ -6727,8 +6775,8 @@
       <c r="K56" s="29"/>
       <c r="L56" s="29"/>
       <c r="M56" s="30"/>
-      <c r="N56" s="89"/>
-      <c r="O56" s="89"/>
+      <c r="N56" s="152"/>
+      <c r="O56" s="152"/>
       <c r="P56" s="31"/>
       <c r="Q56" s="31"/>
       <c r="R56" s="32"/>
@@ -6747,26 +6795,26 @@
       <c r="A57" s="47"/>
       <c r="B57" s="34"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="90" t="s">
+      <c r="D57" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90" t="s">
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="N57" s="90" t="s">
+      <c r="J57" s="104"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="104"/>
+      <c r="N57" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="O57" s="90"/>
-      <c r="P57" s="90"/>
-      <c r="Q57" s="90"/>
-      <c r="R57" s="90"/>
+      <c r="O57" s="104"/>
+      <c r="P57" s="104"/>
+      <c r="Q57" s="104"/>
+      <c r="R57" s="104"/>
       <c r="S57" s="35"/>
       <c r="T57" s="48"/>
       <c r="U57" s="5"/>
@@ -6882,19 +6930,19 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
-      <c r="I61" s="137" t="s">
+      <c r="I61" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="J61" s="137"/>
-      <c r="K61" s="137"/>
-      <c r="L61" s="137"/>
-      <c r="N61" s="137" t="s">
+      <c r="J61" s="108"/>
+      <c r="K61" s="108"/>
+      <c r="L61" s="108"/>
+      <c r="N61" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="O61" s="137"/>
-      <c r="P61" s="137"/>
-      <c r="Q61" s="137"/>
-      <c r="R61" s="137"/>
+      <c r="O61" s="108"/>
+      <c r="P61" s="108"/>
+      <c r="Q61" s="108"/>
+      <c r="R61" s="108"/>
       <c r="S61" s="35"/>
       <c r="T61" s="48"/>
       <c r="U61" s="5"/>
@@ -6910,26 +6958,26 @@
       <c r="A62" s="47"/>
       <c r="B62" s="34"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="90" t="s">
+      <c r="D62" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90" t="s">
+      <c r="E62" s="104"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
+      <c r="I62" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="J62" s="90"/>
-      <c r="K62" s="90"/>
-      <c r="L62" s="90"/>
-      <c r="N62" s="90" t="s">
+      <c r="J62" s="104"/>
+      <c r="K62" s="104"/>
+      <c r="L62" s="104"/>
+      <c r="N62" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="O62" s="90"/>
-      <c r="P62" s="90"/>
-      <c r="Q62" s="90"/>
-      <c r="R62" s="90"/>
+      <c r="O62" s="104"/>
+      <c r="P62" s="104"/>
+      <c r="Q62" s="104"/>
+      <c r="R62" s="104"/>
       <c r="S62" s="35"/>
       <c r="T62" s="48"/>
       <c r="AB62" s="27"/>
@@ -6999,6 +7047,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="B4:S4"/>
+    <mergeCell ref="B5:S5"/>
+    <mergeCell ref="B6:S6"/>
+    <mergeCell ref="B23:S23"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G20:R21"/>
+    <mergeCell ref="B13:S13"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:I33"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="B39:S39"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="E29:R30"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M32:R33"/>
+    <mergeCell ref="N62:R62"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="N57:R57"/>
+    <mergeCell ref="N61:R61"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="I57:L57"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F27:J27"/>
     <mergeCell ref="F35:H35"/>
@@ -7015,50 +7107,6 @@
     <mergeCell ref="G47:M47"/>
     <mergeCell ref="N47:O47"/>
     <mergeCell ref="P47:R47"/>
-    <mergeCell ref="N62:R62"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="N57:R57"/>
-    <mergeCell ref="N61:R61"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="E32:I33"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="B39:S39"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="E29:R30"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M32:R33"/>
-    <mergeCell ref="B4:S4"/>
-    <mergeCell ref="B5:S5"/>
-    <mergeCell ref="B6:S6"/>
-    <mergeCell ref="B23:S23"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G20:R21"/>
-    <mergeCell ref="B13:S13"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="Q41:R41"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
@@ -7152,70 +7200,70 @@
     </row>
     <row r="4" spans="1:20" ht="15.6">
       <c r="A4" s="47"/>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="98"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="128"/>
       <c r="T4" s="48"/>
     </row>
     <row r="5" spans="1:20" ht="14.4" thickBot="1">
       <c r="A5" s="47"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="101"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="131"/>
       <c r="T5" s="48"/>
     </row>
     <row r="6" spans="1:20" ht="5.25" customHeight="1">
       <c r="A6" s="47"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="104"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="134"/>
       <c r="T6" s="48"/>
     </row>
     <row r="7" spans="1:20" ht="2.25" customHeight="1">
@@ -7227,30 +7275,30 @@
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="A8" s="47"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="173" t="s">
+      <c r="D8" s="137"/>
+      <c r="E8" s="153" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
-      <c r="M8" s="175"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="155"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="115" t="s">
+      <c r="O8" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="176" t="s">
+      <c r="P8" s="145"/>
+      <c r="Q8" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="R8" s="176"/>
+      <c r="R8" s="156"/>
       <c r="S8" s="39"/>
       <c r="T8" s="48"/>
     </row>
@@ -7286,23 +7334,23 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="177" t="s">
+      <c r="H10" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="179"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="159"/>
       <c r="L10" s="8"/>
       <c r="M10" s="12" t="s">
         <v>33</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="176" t="s">
+      <c r="P10" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="Q10" s="176"/>
-      <c r="R10" s="176"/>
+      <c r="Q10" s="156"/>
+      <c r="R10" s="156"/>
       <c r="S10" s="39"/>
       <c r="T10" s="48"/>
     </row>
@@ -7336,26 +7384,26 @@
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
       <c r="A13" s="47"/>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="105"/>
-      <c r="S13" s="105"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="112"/>
       <c r="T13" s="48"/>
     </row>
     <row r="14" spans="1:20" ht="5.25" customHeight="1">
@@ -7431,48 +7479,48 @@
     <row r="20" spans="1:20" ht="11.25" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="138" t="s">
+      <c r="C20" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="109" t="s">
+      <c r="G20" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="111"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="139"/>
+      <c r="R20" s="140"/>
       <c r="S20" s="4"/>
       <c r="T20" s="48"/>
     </row>
     <row r="21" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A21" s="47"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="114"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="142"/>
+      <c r="P21" s="142"/>
+      <c r="Q21" s="142"/>
+      <c r="R21" s="143"/>
       <c r="S21" s="4"/>
       <c r="T21" s="48"/>
     </row>
@@ -7484,26 +7532,26 @@
     </row>
     <row r="23" spans="1:20" ht="13.8">
       <c r="A23" s="47"/>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="105"/>
-      <c r="R23" s="105"/>
-      <c r="S23" s="105"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="112"/>
       <c r="T23" s="48"/>
     </row>
     <row r="24" spans="1:20" ht="7.5" customHeight="1">
@@ -7567,26 +7615,26 @@
     <row r="27" spans="1:20" ht="15.75" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="118" t="s">
+      <c r="C27" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="118"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="117" t="s">
+      <c r="D27" s="147"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="L27" s="118"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
       <c r="S27" s="16"/>
       <c r="T27" s="48"/>
     </row>
@@ -7615,46 +7663,46 @@
     <row r="29" spans="1:20" ht="13.8">
       <c r="A29" s="47"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="124" t="s">
+      <c r="C29" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="124"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="168"/>
-      <c r="M29" s="168"/>
-      <c r="N29" s="168"/>
-      <c r="O29" s="168"/>
-      <c r="P29" s="168"/>
-      <c r="Q29" s="168"/>
-      <c r="R29" s="169"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="161"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="162"/>
       <c r="S29" s="16"/>
       <c r="T29" s="48"/>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1">
       <c r="A30" s="47"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="171"/>
-      <c r="L30" s="171"/>
-      <c r="M30" s="171"/>
-      <c r="N30" s="171"/>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="172"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="164"/>
+      <c r="M30" s="164"/>
+      <c r="N30" s="164"/>
+      <c r="O30" s="164"/>
+      <c r="P30" s="164"/>
+      <c r="Q30" s="164"/>
+      <c r="R30" s="165"/>
       <c r="S30" s="17"/>
       <c r="T30" s="48"/>
     </row>
@@ -7683,48 +7731,48 @@
     <row r="32" spans="1:20" ht="12.75" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="124" t="s">
+      <c r="C32" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="124"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="162"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="168"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="124" t="s">
+      <c r="K32" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="125"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="91"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="94"/>
       <c r="S32" s="16"/>
       <c r="T32" s="48"/>
     </row>
     <row r="33" spans="1:28" ht="11.25" customHeight="1">
       <c r="A33" s="47"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="163"/>
-      <c r="F33" s="164"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="165"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="171"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="91"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
       <c r="S33" s="16"/>
       <c r="T33" s="48"/>
     </row>
@@ -7758,9 +7806,9 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="166"/>
-      <c r="G35" s="166"/>
-      <c r="H35" s="166"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
       <c r="I35" s="8" t="s">
         <v>32</v>
       </c>
@@ -7770,8 +7818,8 @@
       </c>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="106"/>
+      <c r="N35" s="135"/>
+      <c r="O35" s="135"/>
       <c r="P35" s="8" t="s">
         <v>32</v>
       </c>
@@ -7807,28 +7855,28 @@
     <row r="37" spans="1:28" ht="18" customHeight="1">
       <c r="A37" s="47"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="127" t="s">
+      <c r="C37" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="128"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="158"/>
-      <c r="K37" s="126" t="s">
+      <c r="D37" s="115"/>
+      <c r="E37" s="175"/>
+      <c r="F37" s="176"/>
+      <c r="G37" s="176"/>
+      <c r="H37" s="176"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="177"/>
+      <c r="K37" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="L37" s="93"/>
-      <c r="M37" s="130"/>
-      <c r="N37" s="130"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="119"/>
       <c r="O37" s="19"/>
       <c r="P37" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="Q37" s="130"/>
-      <c r="R37" s="130"/>
+      <c r="Q37" s="119"/>
+      <c r="R37" s="119"/>
       <c r="S37" s="16"/>
       <c r="T37" s="48"/>
     </row>
@@ -7856,26 +7904,26 @@
     </row>
     <row r="39" spans="1:28" ht="17.25" customHeight="1">
       <c r="A39" s="47"/>
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
-      <c r="O39" s="105"/>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="105"/>
-      <c r="R39" s="105"/>
-      <c r="S39" s="105"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="112"/>
+      <c r="H39" s="112"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="112"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="112"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="112"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="112"/>
+      <c r="R39" s="112"/>
+      <c r="S39" s="112"/>
       <c r="T39" s="48"/>
     </row>
     <row r="40" spans="1:28" ht="6" customHeight="1">
@@ -7908,23 +7956,23 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="148"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="92" t="s">
+      <c r="J41" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="K41" s="93"/>
-      <c r="L41" s="148"/>
-      <c r="M41" s="148"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
       <c r="N41" s="8"/>
-      <c r="O41" s="92" t="s">
+      <c r="O41" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="148"/>
-      <c r="R41" s="148"/>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="100"/>
+      <c r="R41" s="100"/>
       <c r="S41" s="16"/>
       <c r="T41" s="48"/>
     </row>
@@ -7964,15 +8012,15 @@
       <c r="I43" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="148"/>
-      <c r="L43" s="148"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
       <c r="M43" s="8"/>
-      <c r="N43" s="90" t="s">
+      <c r="N43" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="90"/>
-      <c r="P43" s="154"/>
-      <c r="Q43" s="155"/>
+      <c r="O43" s="104"/>
+      <c r="P43" s="173"/>
+      <c r="Q43" s="174"/>
       <c r="R43" s="8"/>
       <c r="S43" s="16"/>
       <c r="T43" s="48"/>
@@ -8005,18 +8053,18 @@
       <c r="C45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="153"/>
-      <c r="H45" s="153"/>
-      <c r="I45" s="153"/>
-      <c r="L45" s="90" t="s">
+      <c r="G45" s="179"/>
+      <c r="H45" s="179"/>
+      <c r="I45" s="179"/>
+      <c r="L45" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="M45" s="90"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="152"/>
-      <c r="P45" s="153"/>
-      <c r="Q45" s="153"/>
-      <c r="R45" s="153"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="179"/>
+      <c r="Q45" s="179"/>
+      <c r="R45" s="179"/>
       <c r="S45" s="16"/>
       <c r="T45" s="48"/>
       <c r="U45" s="5"/>
@@ -8066,20 +8114,20 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="91"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="126" t="s">
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="O47" s="92"/>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="91"/>
-      <c r="R47" s="91"/>
+      <c r="O47" s="107"/>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="94"/>
+      <c r="R47" s="94"/>
       <c r="S47" s="16"/>
       <c r="T47" s="48"/>
       <c r="U47" s="5"/>
@@ -8124,24 +8172,24 @@
     <row r="49" spans="1:28" ht="13.8">
       <c r="A49" s="47"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="149" t="s">
+      <c r="C49" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="149"/>
-      <c r="E49" s="149"/>
-      <c r="F49" s="149"/>
-      <c r="G49" s="149"/>
-      <c r="H49" s="149"/>
-      <c r="I49" s="149"/>
-      <c r="J49" s="149"/>
-      <c r="K49" s="149"/>
-      <c r="L49" s="149"/>
-      <c r="M49" s="149"/>
-      <c r="N49" s="149"/>
-      <c r="O49" s="149"/>
-      <c r="P49" s="149"/>
-      <c r="Q49" s="149"/>
-      <c r="R49" s="149"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="101"/>
+      <c r="J49" s="101"/>
+      <c r="K49" s="101"/>
+      <c r="L49" s="101"/>
+      <c r="M49" s="101"/>
+      <c r="N49" s="101"/>
+      <c r="O49" s="101"/>
+      <c r="P49" s="101"/>
+      <c r="Q49" s="101"/>
+      <c r="R49" s="101"/>
       <c r="S49" s="16"/>
       <c r="T49" s="48"/>
       <c r="U49" s="5"/>
@@ -8186,16 +8234,16 @@
     <row r="51" spans="1:28" ht="15.75" customHeight="1">
       <c r="A51" s="47"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="146" t="s">
+      <c r="C51" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="147"/>
+      <c r="D51" s="99"/>
       <c r="E51" s="25"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="147" t="s">
+      <c r="G51" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="H51" s="150"/>
+      <c r="H51" s="102"/>
       <c r="I51" s="25"/>
       <c r="J51" s="24"/>
       <c r="K51" s="12" t="s">
@@ -8204,8 +8252,8 @@
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
-      <c r="O51" s="151"/>
-      <c r="P51" s="151"/>
+      <c r="O51" s="103"/>
+      <c r="P51" s="103"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="16"/>
       <c r="S51" s="16"/>
@@ -8252,24 +8300,24 @@
     <row r="53" spans="1:28" ht="16.05" customHeight="1">
       <c r="A53" s="47"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="146" t="s">
+      <c r="C53" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="147"/>
-      <c r="E53" s="147"/>
-      <c r="F53" s="147"/>
-      <c r="G53" s="148"/>
-      <c r="H53" s="148"/>
-      <c r="I53" s="148"/>
-      <c r="J53" s="148"/>
-      <c r="K53" s="148"/>
-      <c r="L53" s="148"/>
-      <c r="M53" s="148"/>
-      <c r="N53" s="148"/>
-      <c r="O53" s="148"/>
-      <c r="P53" s="148"/>
-      <c r="Q53" s="148"/>
-      <c r="R53" s="148"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="100"/>
+      <c r="K53" s="100"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="100"/>
+      <c r="O53" s="100"/>
+      <c r="P53" s="100"/>
+      <c r="Q53" s="100"/>
+      <c r="R53" s="100"/>
       <c r="S53" s="16"/>
       <c r="T53" s="48"/>
       <c r="U53" s="5"/>
@@ -8355,8 +8403,8 @@
       <c r="K56" s="29"/>
       <c r="L56" s="29"/>
       <c r="M56" s="30"/>
-      <c r="N56" s="89"/>
-      <c r="O56" s="89"/>
+      <c r="N56" s="152"/>
+      <c r="O56" s="152"/>
       <c r="P56" s="31"/>
       <c r="Q56" s="31"/>
       <c r="R56" s="32"/>
@@ -8375,26 +8423,26 @@
       <c r="A57" s="47"/>
       <c r="B57" s="34"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="90" t="s">
+      <c r="D57" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90" t="s">
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="N57" s="90" t="s">
+      <c r="J57" s="104"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="104"/>
+      <c r="N57" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="O57" s="90"/>
-      <c r="P57" s="90"/>
-      <c r="Q57" s="90"/>
-      <c r="R57" s="90"/>
+      <c r="O57" s="104"/>
+      <c r="P57" s="104"/>
+      <c r="Q57" s="104"/>
+      <c r="R57" s="104"/>
       <c r="S57" s="35"/>
       <c r="T57" s="48"/>
       <c r="U57" s="5"/>
@@ -8510,19 +8558,19 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
-      <c r="I61" s="137" t="s">
+      <c r="I61" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="J61" s="137"/>
-      <c r="K61" s="137"/>
-      <c r="L61" s="137"/>
-      <c r="N61" s="137" t="s">
+      <c r="J61" s="108"/>
+      <c r="K61" s="108"/>
+      <c r="L61" s="108"/>
+      <c r="N61" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="O61" s="137"/>
-      <c r="P61" s="137"/>
-      <c r="Q61" s="137"/>
-      <c r="R61" s="137"/>
+      <c r="O61" s="108"/>
+      <c r="P61" s="108"/>
+      <c r="Q61" s="108"/>
+      <c r="R61" s="108"/>
       <c r="S61" s="35"/>
       <c r="T61" s="48"/>
       <c r="U61" s="5"/>
@@ -8538,26 +8586,26 @@
       <c r="A62" s="47"/>
       <c r="B62" s="34"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="90" t="s">
+      <c r="D62" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90" t="s">
+      <c r="E62" s="104"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
+      <c r="I62" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="J62" s="90"/>
-      <c r="K62" s="90"/>
-      <c r="L62" s="90"/>
-      <c r="N62" s="90" t="s">
+      <c r="J62" s="104"/>
+      <c r="K62" s="104"/>
+      <c r="L62" s="104"/>
+      <c r="N62" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="O62" s="90"/>
-      <c r="P62" s="90"/>
-      <c r="Q62" s="90"/>
-      <c r="R62" s="90"/>
+      <c r="O62" s="104"/>
+      <c r="P62" s="104"/>
+      <c r="Q62" s="104"/>
+      <c r="R62" s="104"/>
       <c r="S62" s="35"/>
       <c r="T62" s="48"/>
       <c r="AB62" s="27"/>
@@ -8627,31 +8675,27 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B23:S23"/>
-    <mergeCell ref="B4:S4"/>
-    <mergeCell ref="B5:S5"/>
-    <mergeCell ref="B6:S6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="B13:S13"/>
-    <mergeCell ref="C20:E21"/>
-    <mergeCell ref="G20:R21"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:R30"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:I33"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="M32:R33"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="N62:R62"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="N57:R57"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="N61:R61"/>
+    <mergeCell ref="C49:R49"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="G53:R53"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="G47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:R47"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="N43:O43"/>
     <mergeCell ref="P43:Q43"/>
@@ -8666,27 +8710,31 @@
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="O41:P41"/>
     <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="G47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="C49:R49"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="G53:R53"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="N62:R62"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="N57:R57"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="N61:R61"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:I33"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="M32:R33"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:R30"/>
+    <mergeCell ref="B23:S23"/>
+    <mergeCell ref="B4:S4"/>
+    <mergeCell ref="B5:S5"/>
+    <mergeCell ref="B6:S6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="B13:S13"/>
+    <mergeCell ref="C20:E21"/>
+    <mergeCell ref="G20:R21"/>
   </mergeCells>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
   <pageSetup scale="105" orientation="portrait" r:id="rId1"/>
@@ -8782,70 +8830,70 @@
     </row>
     <row r="4" spans="1:20" ht="15.6">
       <c r="A4" s="47"/>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="98"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="128"/>
       <c r="T4" s="48"/>
     </row>
     <row r="5" spans="1:20" ht="29.25" customHeight="1" thickBot="1">
       <c r="A5" s="47"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="101"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="131"/>
       <c r="T5" s="48"/>
     </row>
     <row r="6" spans="1:20" ht="5.25" customHeight="1">
       <c r="A6" s="47"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="104"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="134"/>
       <c r="T6" s="48"/>
     </row>
     <row r="7" spans="1:20" ht="2.25" customHeight="1">
@@ -8857,26 +8905,30 @@
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="A8" s="47"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
-      <c r="M8" s="175"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="155"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="115" t="s">
+      <c r="O8" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="176"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="156" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" s="156"/>
       <c r="S8" s="39"/>
       <c r="T8" s="48"/>
     </row>
@@ -8912,19 +8964,23 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="179"/>
+      <c r="H10" s="198">
+        <v>46059</v>
+      </c>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="159"/>
       <c r="L10" s="8"/>
       <c r="M10" s="12" t="s">
         <v>33</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="197"/>
-      <c r="Q10" s="197"/>
-      <c r="R10" s="197"/>
+      <c r="P10" s="199" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q10" s="199"/>
+      <c r="R10" s="199"/>
       <c r="S10" s="39"/>
       <c r="T10" s="48"/>
     </row>
@@ -8958,26 +9014,26 @@
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
       <c r="A13" s="47"/>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="105"/>
-      <c r="S13" s="105"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="112"/>
       <c r="T13" s="48"/>
     </row>
     <row r="14" spans="1:20" ht="5.25" customHeight="1">
@@ -9051,48 +9107,48 @@
     <row r="20" spans="1:20" ht="15.75" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="138" t="s">
+      <c r="C20" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="111"/>
+      <c r="G20" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="139"/>
+      <c r="R20" s="140"/>
       <c r="S20" s="4"/>
       <c r="T20" s="48"/>
     </row>
     <row r="21" spans="1:20" ht="35.25" customHeight="1" thickBot="1">
       <c r="A21" s="47"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="114"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="142"/>
+      <c r="P21" s="142"/>
+      <c r="Q21" s="142"/>
+      <c r="R21" s="143"/>
       <c r="S21" s="4"/>
       <c r="T21" s="48"/>
     </row>
@@ -9104,26 +9160,26 @@
     </row>
     <row r="23" spans="1:20" ht="13.8">
       <c r="A23" s="47"/>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="105"/>
-      <c r="R23" s="105"/>
-      <c r="S23" s="105"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="112"/>
       <c r="T23" s="48"/>
     </row>
     <row r="24" spans="1:20" ht="7.5" customHeight="1">
@@ -9185,26 +9241,26 @@
     <row r="27" spans="1:20" ht="15.75" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="118" t="s">
+      <c r="C27" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="118"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="117" t="s">
+      <c r="D27" s="147"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="L27" s="118"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
       <c r="S27" s="16"/>
       <c r="T27" s="48"/>
     </row>
@@ -9233,46 +9289,46 @@
     <row r="29" spans="1:20" ht="16.5" customHeight="1">
       <c r="A29" s="47"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="124" t="s">
+      <c r="C29" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="124"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="168"/>
-      <c r="M29" s="168"/>
-      <c r="N29" s="168"/>
-      <c r="O29" s="168"/>
-      <c r="P29" s="168"/>
-      <c r="Q29" s="168"/>
-      <c r="R29" s="169"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="161"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="162"/>
       <c r="S29" s="16"/>
       <c r="T29" s="48"/>
     </row>
     <row r="30" spans="1:20" ht="21.75" customHeight="1">
       <c r="A30" s="47"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="171"/>
-      <c r="L30" s="171"/>
-      <c r="M30" s="171"/>
-      <c r="N30" s="171"/>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="172"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="164"/>
+      <c r="M30" s="164"/>
+      <c r="N30" s="164"/>
+      <c r="O30" s="164"/>
+      <c r="P30" s="164"/>
+      <c r="Q30" s="164"/>
+      <c r="R30" s="165"/>
       <c r="S30" s="17"/>
       <c r="T30" s="48"/>
     </row>
@@ -9301,20 +9357,20 @@
     <row r="32" spans="1:20" ht="12.75" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="124" t="s">
+      <c r="C32" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="124"/>
+      <c r="D32" s="110"/>
       <c r="E32" s="80"/>
       <c r="F32" s="81"/>
       <c r="G32" s="81"/>
       <c r="H32" s="81"/>
       <c r="I32" s="81"/>
       <c r="J32" s="58"/>
-      <c r="K32" s="124" t="s">
+      <c r="K32" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="124"/>
+      <c r="L32" s="110"/>
       <c r="M32" s="84"/>
       <c r="N32" s="57"/>
       <c r="O32" s="57"/>
@@ -9327,16 +9383,16 @@
     <row r="33" spans="1:28" ht="15.75" customHeight="1">
       <c r="A33" s="47"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
       <c r="E33" s="82"/>
       <c r="F33" s="83"/>
       <c r="G33" s="83"/>
       <c r="H33" s="83"/>
       <c r="I33" s="83"/>
       <c r="J33" s="64"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
       <c r="M33" s="85"/>
       <c r="N33" s="63"/>
       <c r="O33" s="63"/>
@@ -9376,22 +9432,22 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="198"/>
-      <c r="G35" s="199"/>
-      <c r="H35" s="199"/>
-      <c r="I35" s="200"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="192"/>
       <c r="J35" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="201" t="s">
+      <c r="K35" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="L35" s="201"/>
-      <c r="M35" s="202"/>
-      <c r="N35" s="203"/>
-      <c r="O35" s="204"/>
-      <c r="P35" s="204"/>
-      <c r="Q35" s="205"/>
+      <c r="L35" s="193"/>
+      <c r="M35" s="194"/>
+      <c r="N35" s="195"/>
+      <c r="O35" s="196"/>
+      <c r="P35" s="196"/>
+      <c r="Q35" s="197"/>
       <c r="R35" s="86" t="s">
         <v>32</v>
       </c>
@@ -9425,21 +9481,21 @@
     <row r="37" spans="1:28" ht="36" customHeight="1">
       <c r="A37" s="47"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="206" t="s">
+      <c r="C37" s="188" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="207"/>
-      <c r="E37" s="198"/>
-      <c r="F37" s="199"/>
-      <c r="G37" s="199"/>
-      <c r="H37" s="199"/>
-      <c r="I37" s="199"/>
-      <c r="J37" s="199"/>
-      <c r="K37" s="199"/>
-      <c r="L37" s="199"/>
-      <c r="M37" s="199"/>
-      <c r="N37" s="199"/>
-      <c r="O37" s="200"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="191"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="191"/>
+      <c r="J37" s="191"/>
+      <c r="K37" s="191"/>
+      <c r="L37" s="191"/>
+      <c r="M37" s="191"/>
+      <c r="N37" s="191"/>
+      <c r="O37" s="192"/>
       <c r="P37" s="88" t="s">
         <v>77</v>
       </c>
@@ -9474,26 +9530,26 @@
     </row>
     <row r="39" spans="1:28" ht="17.25" customHeight="1">
       <c r="A39" s="47"/>
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
-      <c r="O39" s="105"/>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="105"/>
-      <c r="R39" s="105"/>
-      <c r="S39" s="105"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="112"/>
+      <c r="H39" s="112"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="112"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="112"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="112"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="112"/>
+      <c r="R39" s="112"/>
+      <c r="S39" s="112"/>
       <c r="T39" s="48"/>
     </row>
     <row r="40" spans="1:28" ht="6" customHeight="1">
@@ -9526,23 +9582,23 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="148"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="92" t="s">
+      <c r="J41" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="K41" s="93"/>
-      <c r="L41" s="148"/>
-      <c r="M41" s="148"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
       <c r="N41" s="8"/>
-      <c r="O41" s="92" t="s">
+      <c r="O41" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="148"/>
-      <c r="R41" s="148"/>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="100"/>
+      <c r="R41" s="100"/>
       <c r="S41" s="16"/>
       <c r="T41" s="48"/>
     </row>
@@ -9582,15 +9638,15 @@
       <c r="I43" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="148"/>
-      <c r="L43" s="148"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
       <c r="M43" s="8"/>
-      <c r="N43" s="90" t="s">
+      <c r="N43" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="90"/>
-      <c r="P43" s="154"/>
-      <c r="Q43" s="155"/>
+      <c r="O43" s="104"/>
+      <c r="P43" s="173"/>
+      <c r="Q43" s="174"/>
       <c r="R43" s="8"/>
       <c r="S43" s="16"/>
       <c r="T43" s="48"/>
@@ -9623,18 +9679,18 @@
       <c r="C45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="153"/>
-      <c r="H45" s="153"/>
-      <c r="I45" s="153"/>
-      <c r="L45" s="90" t="s">
+      <c r="G45" s="179"/>
+      <c r="H45" s="179"/>
+      <c r="I45" s="179"/>
+      <c r="L45" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="M45" s="90"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="152"/>
-      <c r="P45" s="153"/>
-      <c r="Q45" s="153"/>
-      <c r="R45" s="153"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="179"/>
+      <c r="Q45" s="179"/>
+      <c r="R45" s="179"/>
       <c r="S45" s="16"/>
       <c r="T45" s="48"/>
       <c r="U45" s="5"/>
@@ -9684,20 +9740,20 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="91"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="126" t="s">
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="O47" s="92"/>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="91"/>
-      <c r="R47" s="91"/>
+      <c r="O47" s="107"/>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="94"/>
+      <c r="R47" s="94"/>
       <c r="S47" s="16"/>
       <c r="T47" s="48"/>
       <c r="U47" s="5"/>
@@ -9742,24 +9798,24 @@
     <row r="49" spans="1:28" ht="36.75" customHeight="1">
       <c r="A49" s="47"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="206" t="s">
+      <c r="C49" s="188" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="207"/>
-      <c r="E49" s="198"/>
-      <c r="F49" s="199"/>
-      <c r="G49" s="199"/>
-      <c r="H49" s="199"/>
-      <c r="I49" s="199"/>
-      <c r="J49" s="199"/>
-      <c r="K49" s="199"/>
-      <c r="L49" s="199"/>
-      <c r="M49" s="199"/>
-      <c r="N49" s="199"/>
-      <c r="O49" s="199"/>
-      <c r="P49" s="199"/>
-      <c r="Q49" s="199"/>
-      <c r="R49" s="200"/>
+      <c r="D49" s="189"/>
+      <c r="E49" s="190"/>
+      <c r="F49" s="191"/>
+      <c r="G49" s="191"/>
+      <c r="H49" s="191"/>
+      <c r="I49" s="191"/>
+      <c r="J49" s="191"/>
+      <c r="K49" s="191"/>
+      <c r="L49" s="191"/>
+      <c r="M49" s="191"/>
+      <c r="N49" s="191"/>
+      <c r="O49" s="191"/>
+      <c r="P49" s="191"/>
+      <c r="Q49" s="191"/>
+      <c r="R49" s="192"/>
       <c r="S49" s="16"/>
       <c r="T49" s="48"/>
       <c r="U49" s="5"/>
@@ -9815,8 +9871,8 @@
       <c r="K51" s="29"/>
       <c r="L51" s="29"/>
       <c r="M51" s="30"/>
-      <c r="N51" s="89"/>
-      <c r="O51" s="89"/>
+      <c r="N51" s="152"/>
+      <c r="O51" s="152"/>
       <c r="P51" s="31"/>
       <c r="Q51" s="31"/>
       <c r="R51" s="32"/>
@@ -9835,26 +9891,26 @@
       <c r="A52" s="47"/>
       <c r="B52" s="34"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="90" t="s">
+      <c r="D52" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="90" t="s">
+      <c r="E52" s="104"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="J52" s="90"/>
-      <c r="K52" s="90"/>
-      <c r="L52" s="90"/>
-      <c r="N52" s="90" t="s">
+      <c r="J52" s="104"/>
+      <c r="K52" s="104"/>
+      <c r="L52" s="104"/>
+      <c r="N52" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="O52" s="90"/>
-      <c r="P52" s="90"/>
-      <c r="Q52" s="90"/>
-      <c r="R52" s="90"/>
+      <c r="O52" s="104"/>
+      <c r="P52" s="104"/>
+      <c r="Q52" s="104"/>
+      <c r="R52" s="104"/>
       <c r="S52" s="35"/>
       <c r="T52" s="48"/>
       <c r="U52" s="5"/>
@@ -9966,27 +10022,27 @@
         <v>75</v>
       </c>
       <c r="D56" s="8"/>
-      <c r="E56" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="F56" s="90"/>
-      <c r="G56" s="90"/>
+      <c r="E56" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8" t="s">
         <v>75</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
-      <c r="N56" s="137" t="s">
+      <c r="N56" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="O56" s="137"/>
-      <c r="P56" s="137"/>
-      <c r="Q56" s="137"/>
-      <c r="R56" s="137"/>
+      <c r="O56" s="108"/>
+      <c r="P56" s="108"/>
+      <c r="Q56" s="108"/>
+      <c r="R56" s="108"/>
       <c r="S56" s="35"/>
       <c r="T56" s="48"/>
       <c r="U56" s="5"/>
@@ -10002,26 +10058,26 @@
       <c r="A57" s="47"/>
       <c r="B57" s="34"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="90" t="s">
+      <c r="D57" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90" t="s">
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="N57" s="90" t="s">
+      <c r="J57" s="104"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="104"/>
+      <c r="N57" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="O57" s="90"/>
-      <c r="P57" s="90"/>
-      <c r="Q57" s="90"/>
-      <c r="R57" s="90"/>
+      <c r="O57" s="104"/>
+      <c r="P57" s="104"/>
+      <c r="Q57" s="104"/>
+      <c r="R57" s="104"/>
       <c r="S57" s="35"/>
       <c r="T57" s="48"/>
       <c r="AB57" s="27"/>
@@ -10049,27 +10105,27 @@
       <c r="T58" s="48"/>
     </row>
     <row r="59" spans="1:28" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A59" s="180" t="s">
+      <c r="A59" s="200" t="s">
         <v>88</v>
       </c>
-      <c r="B59" s="181"/>
-      <c r="C59" s="181"/>
-      <c r="D59" s="181"/>
-      <c r="E59" s="181"/>
-      <c r="F59" s="181"/>
-      <c r="G59" s="181"/>
-      <c r="H59" s="181"/>
-      <c r="I59" s="181"/>
-      <c r="J59" s="181"/>
-      <c r="K59" s="181"/>
-      <c r="L59" s="181"/>
-      <c r="M59" s="181"/>
-      <c r="N59" s="181"/>
-      <c r="O59" s="181"/>
-      <c r="P59" s="181"/>
-      <c r="Q59" s="181"/>
-      <c r="R59" s="181"/>
-      <c r="S59" s="181"/>
+      <c r="B59" s="201"/>
+      <c r="C59" s="201"/>
+      <c r="D59" s="201"/>
+      <c r="E59" s="201"/>
+      <c r="F59" s="201"/>
+      <c r="G59" s="201"/>
+      <c r="H59" s="201"/>
+      <c r="I59" s="201"/>
+      <c r="J59" s="201"/>
+      <c r="K59" s="201"/>
+      <c r="L59" s="201"/>
+      <c r="M59" s="201"/>
+      <c r="N59" s="201"/>
+      <c r="O59" s="201"/>
+      <c r="P59" s="201"/>
+      <c r="Q59" s="201"/>
+      <c r="R59" s="201"/>
+      <c r="S59" s="201"/>
       <c r="T59" s="53"/>
     </row>
     <row r="60" spans="1:28" ht="14.4" thickTop="1">
@@ -10092,79 +10148,79 @@
       <c r="S60" s="8"/>
     </row>
     <row r="61" spans="1:28" ht="15" customHeight="1">
-      <c r="D61" s="182" t="s">
+      <c r="D61" s="202" t="s">
         <v>89</v>
       </c>
-      <c r="E61" s="183"/>
-      <c r="F61" s="188" t="s">
+      <c r="E61" s="203"/>
+      <c r="F61" s="208" t="s">
         <v>90</v>
       </c>
-      <c r="G61" s="189"/>
-      <c r="H61" s="189"/>
-      <c r="I61" s="189"/>
-      <c r="J61" s="189"/>
-      <c r="K61" s="189"/>
-      <c r="L61" s="190"/>
-      <c r="M61" s="195" t="s">
+      <c r="G61" s="209"/>
+      <c r="H61" s="209"/>
+      <c r="I61" s="209"/>
+      <c r="J61" s="209"/>
+      <c r="K61" s="209"/>
+      <c r="L61" s="210"/>
+      <c r="M61" s="215" t="s">
         <v>91</v>
       </c>
-      <c r="N61" s="195"/>
-      <c r="O61" s="195"/>
-      <c r="P61" s="195"/>
-      <c r="Q61" s="195"/>
-      <c r="R61" s="195"/>
-      <c r="S61" s="195"/>
-      <c r="T61" s="195"/>
+      <c r="N61" s="215"/>
+      <c r="O61" s="215"/>
+      <c r="P61" s="215"/>
+      <c r="Q61" s="215"/>
+      <c r="R61" s="215"/>
+      <c r="S61" s="215"/>
+      <c r="T61" s="215"/>
     </row>
     <row r="62" spans="1:28">
-      <c r="D62" s="184">
+      <c r="D62" s="204">
         <v>1</v>
       </c>
-      <c r="E62" s="185"/>
-      <c r="F62" s="186">
+      <c r="E62" s="205"/>
+      <c r="F62" s="206">
         <v>44810</v>
       </c>
-      <c r="G62" s="186"/>
-      <c r="H62" s="186"/>
-      <c r="I62" s="186"/>
-      <c r="J62" s="186"/>
-      <c r="K62" s="186"/>
-      <c r="L62" s="186"/>
-      <c r="M62" s="192" t="s">
+      <c r="G62" s="206"/>
+      <c r="H62" s="206"/>
+      <c r="I62" s="206"/>
+      <c r="J62" s="206"/>
+      <c r="K62" s="206"/>
+      <c r="L62" s="206"/>
+      <c r="M62" s="212" t="s">
         <v>92</v>
       </c>
-      <c r="N62" s="193"/>
-      <c r="O62" s="193"/>
-      <c r="P62" s="193"/>
-      <c r="Q62" s="193"/>
-      <c r="R62" s="193"/>
-      <c r="S62" s="193"/>
-      <c r="T62" s="194"/>
+      <c r="N62" s="213"/>
+      <c r="O62" s="213"/>
+      <c r="P62" s="213"/>
+      <c r="Q62" s="213"/>
+      <c r="R62" s="213"/>
+      <c r="S62" s="213"/>
+      <c r="T62" s="214"/>
     </row>
     <row r="63" spans="1:28" ht="27.75" customHeight="1">
-      <c r="D63" s="184">
+      <c r="D63" s="204">
         <v>2</v>
       </c>
-      <c r="E63" s="185"/>
-      <c r="F63" s="186">
+      <c r="E63" s="205"/>
+      <c r="F63" s="206">
         <v>45134</v>
       </c>
-      <c r="G63" s="187"/>
-      <c r="H63" s="187"/>
-      <c r="I63" s="187"/>
-      <c r="J63" s="187"/>
-      <c r="K63" s="187"/>
-      <c r="L63" s="187"/>
-      <c r="M63" s="191" t="s">
+      <c r="G63" s="207"/>
+      <c r="H63" s="207"/>
+      <c r="I63" s="207"/>
+      <c r="J63" s="207"/>
+      <c r="K63" s="207"/>
+      <c r="L63" s="207"/>
+      <c r="M63" s="211" t="s">
         <v>93</v>
       </c>
-      <c r="N63" s="191"/>
-      <c r="O63" s="191"/>
-      <c r="P63" s="191"/>
-      <c r="Q63" s="191"/>
-      <c r="R63" s="191"/>
-      <c r="S63" s="191"/>
-      <c r="T63" s="191"/>
+      <c r="N63" s="211"/>
+      <c r="O63" s="211"/>
+      <c r="P63" s="211"/>
+      <c r="Q63" s="211"/>
+      <c r="R63" s="211"/>
+      <c r="S63" s="211"/>
+      <c r="T63" s="211"/>
     </row>
     <row r="65" spans="1:20" ht="13.8" hidden="1" thickBot="1"/>
     <row r="66" spans="1:20" ht="13.8" hidden="1" thickTop="1">
@@ -10213,70 +10269,70 @@
     </row>
     <row r="68" spans="1:20" ht="15.6" hidden="1">
       <c r="A68" s="47"/>
-      <c r="B68" s="96" t="s">
+      <c r="B68" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="97"/>
-      <c r="D68" s="97"/>
-      <c r="E68" s="97"/>
-      <c r="F68" s="97"/>
-      <c r="G68" s="97"/>
-      <c r="H68" s="97"/>
-      <c r="I68" s="97"/>
-      <c r="J68" s="97"/>
-      <c r="K68" s="97"/>
-      <c r="L68" s="97"/>
-      <c r="M68" s="97"/>
-      <c r="N68" s="97"/>
-      <c r="O68" s="97"/>
-      <c r="P68" s="97"/>
-      <c r="Q68" s="97"/>
-      <c r="R68" s="97"/>
-      <c r="S68" s="98"/>
+      <c r="C68" s="127"/>
+      <c r="D68" s="127"/>
+      <c r="E68" s="127"/>
+      <c r="F68" s="127"/>
+      <c r="G68" s="127"/>
+      <c r="H68" s="127"/>
+      <c r="I68" s="127"/>
+      <c r="J68" s="127"/>
+      <c r="K68" s="127"/>
+      <c r="L68" s="127"/>
+      <c r="M68" s="127"/>
+      <c r="N68" s="127"/>
+      <c r="O68" s="127"/>
+      <c r="P68" s="127"/>
+      <c r="Q68" s="127"/>
+      <c r="R68" s="127"/>
+      <c r="S68" s="128"/>
       <c r="T68" s="48"/>
     </row>
     <row r="69" spans="1:20" ht="14.4" hidden="1" thickBot="1">
       <c r="A69" s="47"/>
-      <c r="B69" s="99"/>
-      <c r="C69" s="100"/>
-      <c r="D69" s="100"/>
-      <c r="E69" s="100"/>
-      <c r="F69" s="100"/>
-      <c r="G69" s="100"/>
-      <c r="H69" s="100"/>
-      <c r="I69" s="100"/>
-      <c r="J69" s="100"/>
-      <c r="K69" s="100"/>
-      <c r="L69" s="100"/>
-      <c r="M69" s="100"/>
-      <c r="N69" s="100"/>
-      <c r="O69" s="100"/>
-      <c r="P69" s="100"/>
-      <c r="Q69" s="100"/>
-      <c r="R69" s="100"/>
-      <c r="S69" s="101"/>
+      <c r="B69" s="129"/>
+      <c r="C69" s="130"/>
+      <c r="D69" s="130"/>
+      <c r="E69" s="130"/>
+      <c r="F69" s="130"/>
+      <c r="G69" s="130"/>
+      <c r="H69" s="130"/>
+      <c r="I69" s="130"/>
+      <c r="J69" s="130"/>
+      <c r="K69" s="130"/>
+      <c r="L69" s="130"/>
+      <c r="M69" s="130"/>
+      <c r="N69" s="130"/>
+      <c r="O69" s="130"/>
+      <c r="P69" s="130"/>
+      <c r="Q69" s="130"/>
+      <c r="R69" s="130"/>
+      <c r="S69" s="131"/>
       <c r="T69" s="48"/>
     </row>
     <row r="70" spans="1:20" ht="13.8" hidden="1">
       <c r="A70" s="47"/>
-      <c r="B70" s="102"/>
-      <c r="C70" s="103"/>
-      <c r="D70" s="103"/>
-      <c r="E70" s="103"/>
-      <c r="F70" s="103"/>
-      <c r="G70" s="103"/>
-      <c r="H70" s="103"/>
-      <c r="I70" s="103"/>
-      <c r="J70" s="103"/>
-      <c r="K70" s="103"/>
-      <c r="L70" s="103"/>
-      <c r="M70" s="103"/>
-      <c r="N70" s="103"/>
-      <c r="O70" s="103"/>
-      <c r="P70" s="103"/>
-      <c r="Q70" s="103"/>
-      <c r="R70" s="103"/>
-      <c r="S70" s="104"/>
+      <c r="B70" s="132"/>
+      <c r="C70" s="133"/>
+      <c r="D70" s="133"/>
+      <c r="E70" s="133"/>
+      <c r="F70" s="133"/>
+      <c r="G70" s="133"/>
+      <c r="H70" s="133"/>
+      <c r="I70" s="133"/>
+      <c r="J70" s="133"/>
+      <c r="K70" s="133"/>
+      <c r="L70" s="133"/>
+      <c r="M70" s="133"/>
+      <c r="N70" s="133"/>
+      <c r="O70" s="133"/>
+      <c r="P70" s="133"/>
+      <c r="Q70" s="133"/>
+      <c r="R70" s="133"/>
+      <c r="S70" s="134"/>
       <c r="T70" s="48"/>
     </row>
     <row r="71" spans="1:20" hidden="1">
@@ -10288,26 +10344,26 @@
     <row r="72" spans="1:20" ht="15.6" hidden="1">
       <c r="A72" s="47"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="107" t="s">
+      <c r="C72" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="108"/>
-      <c r="E72" s="173"/>
-      <c r="F72" s="174"/>
-      <c r="G72" s="174"/>
-      <c r="H72" s="174"/>
-      <c r="I72" s="174"/>
-      <c r="J72" s="174"/>
-      <c r="K72" s="174"/>
-      <c r="L72" s="174"/>
-      <c r="M72" s="175"/>
+      <c r="D72" s="137"/>
+      <c r="E72" s="153"/>
+      <c r="F72" s="154"/>
+      <c r="G72" s="154"/>
+      <c r="H72" s="154"/>
+      <c r="I72" s="154"/>
+      <c r="J72" s="154"/>
+      <c r="K72" s="154"/>
+      <c r="L72" s="154"/>
+      <c r="M72" s="155"/>
       <c r="N72" s="8"/>
-      <c r="O72" s="115" t="s">
+      <c r="O72" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="P72" s="116"/>
-      <c r="Q72" s="176"/>
-      <c r="R72" s="176"/>
+      <c r="P72" s="145"/>
+      <c r="Q72" s="156"/>
+      <c r="R72" s="156"/>
       <c r="S72" s="39"/>
       <c r="T72" s="48"/>
     </row>
@@ -10343,19 +10399,19 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="177"/>
-      <c r="I74" s="178"/>
-      <c r="J74" s="178"/>
-      <c r="K74" s="179"/>
+      <c r="H74" s="157"/>
+      <c r="I74" s="158"/>
+      <c r="J74" s="158"/>
+      <c r="K74" s="159"/>
       <c r="L74" s="8"/>
       <c r="M74" s="12" t="s">
         <v>33</v>
       </c>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
-      <c r="P74" s="176"/>
-      <c r="Q74" s="176"/>
-      <c r="R74" s="176"/>
+      <c r="P74" s="156"/>
+      <c r="Q74" s="156"/>
+      <c r="R74" s="156"/>
       <c r="S74" s="39"/>
       <c r="T74" s="48"/>
     </row>
@@ -10389,26 +10445,26 @@
     </row>
     <row r="77" spans="1:20" ht="13.8" hidden="1">
       <c r="A77" s="47"/>
-      <c r="B77" s="105" t="s">
+      <c r="B77" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="C77" s="105"/>
-      <c r="D77" s="105"/>
-      <c r="E77" s="105"/>
-      <c r="F77" s="105"/>
-      <c r="G77" s="105"/>
-      <c r="H77" s="105"/>
-      <c r="I77" s="105"/>
-      <c r="J77" s="105"/>
-      <c r="K77" s="105"/>
-      <c r="L77" s="105"/>
-      <c r="M77" s="105"/>
-      <c r="N77" s="105"/>
-      <c r="O77" s="105"/>
-      <c r="P77" s="105"/>
-      <c r="Q77" s="105"/>
-      <c r="R77" s="105"/>
-      <c r="S77" s="105"/>
+      <c r="C77" s="112"/>
+      <c r="D77" s="112"/>
+      <c r="E77" s="112"/>
+      <c r="F77" s="112"/>
+      <c r="G77" s="112"/>
+      <c r="H77" s="112"/>
+      <c r="I77" s="112"/>
+      <c r="J77" s="112"/>
+      <c r="K77" s="112"/>
+      <c r="L77" s="112"/>
+      <c r="M77" s="112"/>
+      <c r="N77" s="112"/>
+      <c r="O77" s="112"/>
+      <c r="P77" s="112"/>
+      <c r="Q77" s="112"/>
+      <c r="R77" s="112"/>
+      <c r="S77" s="112"/>
       <c r="T77" s="48"/>
     </row>
     <row r="78" spans="1:20" hidden="1">
@@ -10484,112 +10540,112 @@
     <row r="84" spans="1:20" hidden="1">
       <c r="A84" s="47"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="138" t="s">
+      <c r="C84" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D84" s="139"/>
-      <c r="E84" s="139"/>
+      <c r="D84" s="90"/>
+      <c r="E84" s="90"/>
       <c r="F84" s="10"/>
-      <c r="G84" s="109"/>
-      <c r="H84" s="110"/>
-      <c r="I84" s="110"/>
-      <c r="J84" s="110"/>
-      <c r="K84" s="110"/>
-      <c r="L84" s="110"/>
-      <c r="M84" s="110"/>
-      <c r="N84" s="110"/>
-      <c r="O84" s="110"/>
-      <c r="P84" s="110"/>
-      <c r="Q84" s="110"/>
-      <c r="R84" s="111"/>
+      <c r="G84" s="138"/>
+      <c r="H84" s="139"/>
+      <c r="I84" s="139"/>
+      <c r="J84" s="139"/>
+      <c r="K84" s="139"/>
+      <c r="L84" s="139"/>
+      <c r="M84" s="139"/>
+      <c r="N84" s="139"/>
+      <c r="O84" s="139"/>
+      <c r="P84" s="139"/>
+      <c r="Q84" s="139"/>
+      <c r="R84" s="140"/>
       <c r="S84" s="4"/>
       <c r="T84" s="48"/>
     </row>
     <row r="85" spans="1:20" hidden="1">
       <c r="A85" s="47"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="208"/>
-      <c r="D85" s="209"/>
-      <c r="E85" s="209"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
       <c r="F85" s="78"/>
-      <c r="G85" s="210"/>
-      <c r="H85" s="211"/>
-      <c r="I85" s="211"/>
-      <c r="J85" s="211"/>
-      <c r="K85" s="211"/>
-      <c r="L85" s="211"/>
-      <c r="M85" s="211"/>
-      <c r="N85" s="211"/>
-      <c r="O85" s="211"/>
-      <c r="P85" s="211"/>
-      <c r="Q85" s="211"/>
-      <c r="R85" s="212"/>
+      <c r="G85" s="185"/>
+      <c r="H85" s="186"/>
+      <c r="I85" s="186"/>
+      <c r="J85" s="186"/>
+      <c r="K85" s="186"/>
+      <c r="L85" s="186"/>
+      <c r="M85" s="186"/>
+      <c r="N85" s="186"/>
+      <c r="O85" s="186"/>
+      <c r="P85" s="186"/>
+      <c r="Q85" s="186"/>
+      <c r="R85" s="187"/>
       <c r="S85" s="4"/>
       <c r="T85" s="48"/>
     </row>
     <row r="86" spans="1:20" hidden="1">
       <c r="A86" s="47"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="208"/>
-      <c r="D86" s="209"/>
-      <c r="E86" s="209"/>
+      <c r="C86" s="183"/>
+      <c r="D86" s="184"/>
+      <c r="E86" s="184"/>
       <c r="F86" s="78"/>
-      <c r="G86" s="210"/>
-      <c r="H86" s="211"/>
-      <c r="I86" s="211"/>
-      <c r="J86" s="211"/>
-      <c r="K86" s="211"/>
-      <c r="L86" s="211"/>
-      <c r="M86" s="211"/>
-      <c r="N86" s="211"/>
-      <c r="O86" s="211"/>
-      <c r="P86" s="211"/>
-      <c r="Q86" s="211"/>
-      <c r="R86" s="212"/>
+      <c r="G86" s="185"/>
+      <c r="H86" s="186"/>
+      <c r="I86" s="186"/>
+      <c r="J86" s="186"/>
+      <c r="K86" s="186"/>
+      <c r="L86" s="186"/>
+      <c r="M86" s="186"/>
+      <c r="N86" s="186"/>
+      <c r="O86" s="186"/>
+      <c r="P86" s="186"/>
+      <c r="Q86" s="186"/>
+      <c r="R86" s="187"/>
       <c r="S86" s="4"/>
       <c r="T86" s="48"/>
     </row>
     <row r="87" spans="1:20" hidden="1">
       <c r="A87" s="47"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="208"/>
-      <c r="D87" s="209"/>
-      <c r="E87" s="209"/>
+      <c r="C87" s="183"/>
+      <c r="D87" s="184"/>
+      <c r="E87" s="184"/>
       <c r="F87" s="78"/>
-      <c r="G87" s="210"/>
-      <c r="H87" s="211"/>
-      <c r="I87" s="211"/>
-      <c r="J87" s="211"/>
-      <c r="K87" s="211"/>
-      <c r="L87" s="211"/>
-      <c r="M87" s="211"/>
-      <c r="N87" s="211"/>
-      <c r="O87" s="211"/>
-      <c r="P87" s="211"/>
-      <c r="Q87" s="211"/>
-      <c r="R87" s="212"/>
+      <c r="G87" s="185"/>
+      <c r="H87" s="186"/>
+      <c r="I87" s="186"/>
+      <c r="J87" s="186"/>
+      <c r="K87" s="186"/>
+      <c r="L87" s="186"/>
+      <c r="M87" s="186"/>
+      <c r="N87" s="186"/>
+      <c r="O87" s="186"/>
+      <c r="P87" s="186"/>
+      <c r="Q87" s="186"/>
+      <c r="R87" s="187"/>
       <c r="S87" s="4"/>
       <c r="T87" s="48"/>
     </row>
     <row r="88" spans="1:20" ht="13.8" hidden="1" thickBot="1">
       <c r="A88" s="47"/>
       <c r="B88" s="3"/>
-      <c r="C88" s="140"/>
-      <c r="D88" s="141"/>
-      <c r="E88" s="141"/>
+      <c r="C88" s="91"/>
+      <c r="D88" s="92"/>
+      <c r="E88" s="92"/>
       <c r="F88" s="11"/>
-      <c r="G88" s="112"/>
-      <c r="H88" s="113"/>
-      <c r="I88" s="113"/>
-      <c r="J88" s="113"/>
-      <c r="K88" s="113"/>
-      <c r="L88" s="113"/>
-      <c r="M88" s="113"/>
-      <c r="N88" s="113"/>
-      <c r="O88" s="113"/>
-      <c r="P88" s="113"/>
-      <c r="Q88" s="113"/>
-      <c r="R88" s="114"/>
+      <c r="G88" s="141"/>
+      <c r="H88" s="142"/>
+      <c r="I88" s="142"/>
+      <c r="J88" s="142"/>
+      <c r="K88" s="142"/>
+      <c r="L88" s="142"/>
+      <c r="M88" s="142"/>
+      <c r="N88" s="142"/>
+      <c r="O88" s="142"/>
+      <c r="P88" s="142"/>
+      <c r="Q88" s="142"/>
+      <c r="R88" s="143"/>
       <c r="S88" s="4"/>
       <c r="T88" s="48"/>
     </row>
@@ -10601,26 +10657,26 @@
     </row>
     <row r="90" spans="1:20" ht="13.8" hidden="1">
       <c r="A90" s="47"/>
-      <c r="B90" s="105" t="s">
+      <c r="B90" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="C90" s="105"/>
-      <c r="D90" s="105"/>
-      <c r="E90" s="105"/>
-      <c r="F90" s="105"/>
-      <c r="G90" s="105"/>
-      <c r="H90" s="105"/>
-      <c r="I90" s="105"/>
-      <c r="J90" s="105"/>
-      <c r="K90" s="105"/>
-      <c r="L90" s="105"/>
-      <c r="M90" s="105"/>
-      <c r="N90" s="105"/>
-      <c r="O90" s="105"/>
-      <c r="P90" s="105"/>
-      <c r="Q90" s="105"/>
-      <c r="R90" s="105"/>
-      <c r="S90" s="105"/>
+      <c r="C90" s="112"/>
+      <c r="D90" s="112"/>
+      <c r="E90" s="112"/>
+      <c r="F90" s="112"/>
+      <c r="G90" s="112"/>
+      <c r="H90" s="112"/>
+      <c r="I90" s="112"/>
+      <c r="J90" s="112"/>
+      <c r="K90" s="112"/>
+      <c r="L90" s="112"/>
+      <c r="M90" s="112"/>
+      <c r="N90" s="112"/>
+      <c r="O90" s="112"/>
+      <c r="P90" s="112"/>
+      <c r="Q90" s="112"/>
+      <c r="R90" s="112"/>
+      <c r="S90" s="112"/>
       <c r="T90" s="48"/>
     </row>
     <row r="91" spans="1:20" hidden="1">
@@ -10682,26 +10738,26 @@
     <row r="94" spans="1:20" ht="15.6" hidden="1">
       <c r="A94" s="47"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="118" t="s">
+      <c r="C94" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="118"/>
-      <c r="E94" s="119"/>
-      <c r="F94" s="142"/>
-      <c r="G94" s="142"/>
-      <c r="H94" s="142"/>
-      <c r="I94" s="142"/>
-      <c r="J94" s="142"/>
-      <c r="K94" s="117" t="s">
+      <c r="D94" s="147"/>
+      <c r="E94" s="148"/>
+      <c r="F94" s="93"/>
+      <c r="G94" s="93"/>
+      <c r="H94" s="93"/>
+      <c r="I94" s="93"/>
+      <c r="J94" s="93"/>
+      <c r="K94" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="L94" s="118"/>
-      <c r="M94" s="119"/>
-      <c r="N94" s="91"/>
-      <c r="O94" s="91"/>
-      <c r="P94" s="91"/>
-      <c r="Q94" s="91"/>
-      <c r="R94" s="91"/>
+      <c r="L94" s="147"/>
+      <c r="M94" s="148"/>
+      <c r="N94" s="94"/>
+      <c r="O94" s="94"/>
+      <c r="P94" s="94"/>
+      <c r="Q94" s="94"/>
+      <c r="R94" s="94"/>
       <c r="S94" s="16"/>
       <c r="T94" s="48"/>
     </row>
@@ -10730,68 +10786,68 @@
     <row r="96" spans="1:20" ht="13.8" hidden="1">
       <c r="A96" s="47"/>
       <c r="B96" s="3"/>
-      <c r="C96" s="124" t="s">
+      <c r="C96" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="D96" s="124"/>
-      <c r="E96" s="167"/>
-      <c r="F96" s="168"/>
-      <c r="G96" s="168"/>
-      <c r="H96" s="168"/>
-      <c r="I96" s="168"/>
-      <c r="J96" s="168"/>
-      <c r="K96" s="168"/>
-      <c r="L96" s="168"/>
-      <c r="M96" s="168"/>
-      <c r="N96" s="168"/>
-      <c r="O96" s="168"/>
-      <c r="P96" s="168"/>
-      <c r="Q96" s="168"/>
-      <c r="R96" s="169"/>
+      <c r="D96" s="110"/>
+      <c r="E96" s="160"/>
+      <c r="F96" s="161"/>
+      <c r="G96" s="161"/>
+      <c r="H96" s="161"/>
+      <c r="I96" s="161"/>
+      <c r="J96" s="161"/>
+      <c r="K96" s="161"/>
+      <c r="L96" s="161"/>
+      <c r="M96" s="161"/>
+      <c r="N96" s="161"/>
+      <c r="O96" s="161"/>
+      <c r="P96" s="161"/>
+      <c r="Q96" s="161"/>
+      <c r="R96" s="162"/>
       <c r="S96" s="16"/>
       <c r="T96" s="48"/>
     </row>
     <row r="97" spans="1:20" ht="13.8" hidden="1">
       <c r="A97" s="47"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="124"/>
-      <c r="D97" s="124"/>
-      <c r="E97" s="213"/>
-      <c r="F97" s="214"/>
-      <c r="G97" s="214"/>
-      <c r="H97" s="214"/>
-      <c r="I97" s="214"/>
-      <c r="J97" s="214"/>
-      <c r="K97" s="214"/>
-      <c r="L97" s="214"/>
-      <c r="M97" s="214"/>
-      <c r="N97" s="214"/>
-      <c r="O97" s="214"/>
-      <c r="P97" s="214"/>
-      <c r="Q97" s="214"/>
-      <c r="R97" s="215"/>
+      <c r="C97" s="110"/>
+      <c r="D97" s="110"/>
+      <c r="E97" s="180"/>
+      <c r="F97" s="181"/>
+      <c r="G97" s="181"/>
+      <c r="H97" s="181"/>
+      <c r="I97" s="181"/>
+      <c r="J97" s="181"/>
+      <c r="K97" s="181"/>
+      <c r="L97" s="181"/>
+      <c r="M97" s="181"/>
+      <c r="N97" s="181"/>
+      <c r="O97" s="181"/>
+      <c r="P97" s="181"/>
+      <c r="Q97" s="181"/>
+      <c r="R97" s="182"/>
       <c r="S97" s="16"/>
       <c r="T97" s="48"/>
     </row>
     <row r="98" spans="1:20" ht="13.8" hidden="1">
       <c r="A98" s="47"/>
       <c r="B98" s="3"/>
-      <c r="C98" s="124"/>
-      <c r="D98" s="124"/>
-      <c r="E98" s="170"/>
-      <c r="F98" s="171"/>
-      <c r="G98" s="171"/>
-      <c r="H98" s="171"/>
-      <c r="I98" s="171"/>
-      <c r="J98" s="171"/>
-      <c r="K98" s="171"/>
-      <c r="L98" s="171"/>
-      <c r="M98" s="171"/>
-      <c r="N98" s="171"/>
-      <c r="O98" s="171"/>
-      <c r="P98" s="171"/>
-      <c r="Q98" s="171"/>
-      <c r="R98" s="172"/>
+      <c r="C98" s="110"/>
+      <c r="D98" s="110"/>
+      <c r="E98" s="163"/>
+      <c r="F98" s="164"/>
+      <c r="G98" s="164"/>
+      <c r="H98" s="164"/>
+      <c r="I98" s="164"/>
+      <c r="J98" s="164"/>
+      <c r="K98" s="164"/>
+      <c r="L98" s="164"/>
+      <c r="M98" s="164"/>
+      <c r="N98" s="164"/>
+      <c r="O98" s="164"/>
+      <c r="P98" s="164"/>
+      <c r="Q98" s="164"/>
+      <c r="R98" s="165"/>
       <c r="S98" s="17"/>
       <c r="T98" s="48"/>
     </row>
@@ -10820,48 +10876,48 @@
     <row r="100" spans="1:20" ht="13.8" hidden="1">
       <c r="A100" s="47"/>
       <c r="B100" s="3"/>
-      <c r="C100" s="124" t="s">
+      <c r="C100" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="124"/>
-      <c r="E100" s="160"/>
-      <c r="F100" s="161"/>
-      <c r="G100" s="161"/>
-      <c r="H100" s="161"/>
-      <c r="I100" s="162"/>
+      <c r="D100" s="110"/>
+      <c r="E100" s="166"/>
+      <c r="F100" s="167"/>
+      <c r="G100" s="167"/>
+      <c r="H100" s="167"/>
+      <c r="I100" s="168"/>
       <c r="J100" s="8"/>
-      <c r="K100" s="124" t="s">
+      <c r="K100" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="L100" s="125"/>
-      <c r="M100" s="91"/>
-      <c r="N100" s="91"/>
-      <c r="O100" s="91"/>
-      <c r="P100" s="91"/>
-      <c r="Q100" s="91"/>
-      <c r="R100" s="91"/>
+      <c r="L100" s="111"/>
+      <c r="M100" s="94"/>
+      <c r="N100" s="94"/>
+      <c r="O100" s="94"/>
+      <c r="P100" s="94"/>
+      <c r="Q100" s="94"/>
+      <c r="R100" s="94"/>
       <c r="S100" s="16"/>
       <c r="T100" s="48"/>
     </row>
     <row r="101" spans="1:20" ht="13.8" hidden="1">
       <c r="A101" s="47"/>
       <c r="B101" s="3"/>
-      <c r="C101" s="124"/>
-      <c r="D101" s="124"/>
-      <c r="E101" s="163"/>
-      <c r="F101" s="164"/>
-      <c r="G101" s="164"/>
-      <c r="H101" s="164"/>
-      <c r="I101" s="165"/>
+      <c r="C101" s="110"/>
+      <c r="D101" s="110"/>
+      <c r="E101" s="169"/>
+      <c r="F101" s="170"/>
+      <c r="G101" s="170"/>
+      <c r="H101" s="170"/>
+      <c r="I101" s="171"/>
       <c r="J101" s="8"/>
-      <c r="K101" s="124"/>
-      <c r="L101" s="125"/>
-      <c r="M101" s="91"/>
-      <c r="N101" s="91"/>
-      <c r="O101" s="91"/>
-      <c r="P101" s="91"/>
-      <c r="Q101" s="91"/>
-      <c r="R101" s="91"/>
+      <c r="K101" s="110"/>
+      <c r="L101" s="111"/>
+      <c r="M101" s="94"/>
+      <c r="N101" s="94"/>
+      <c r="O101" s="94"/>
+      <c r="P101" s="94"/>
+      <c r="Q101" s="94"/>
+      <c r="R101" s="94"/>
       <c r="S101" s="16"/>
       <c r="T101" s="48"/>
     </row>
@@ -10895,9 +10951,9 @@
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
-      <c r="F103" s="166"/>
-      <c r="G103" s="166"/>
-      <c r="H103" s="166"/>
+      <c r="F103" s="172"/>
+      <c r="G103" s="172"/>
+      <c r="H103" s="172"/>
       <c r="I103" s="8" t="s">
         <v>32</v>
       </c>
@@ -10907,8 +10963,8 @@
       </c>
       <c r="L103" s="18"/>
       <c r="M103" s="18"/>
-      <c r="N103" s="106"/>
-      <c r="O103" s="106"/>
+      <c r="N103" s="135"/>
+      <c r="O103" s="135"/>
       <c r="P103" s="8" t="s">
         <v>32</v>
       </c>
@@ -10944,28 +11000,28 @@
     <row r="105" spans="1:20" ht="13.8" hidden="1">
       <c r="A105" s="47"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="127" t="s">
+      <c r="C105" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="D105" s="128"/>
-      <c r="E105" s="156"/>
-      <c r="F105" s="157"/>
-      <c r="G105" s="157"/>
-      <c r="H105" s="157"/>
-      <c r="I105" s="157"/>
-      <c r="J105" s="158"/>
-      <c r="K105" s="126" t="s">
+      <c r="D105" s="115"/>
+      <c r="E105" s="175"/>
+      <c r="F105" s="176"/>
+      <c r="G105" s="176"/>
+      <c r="H105" s="176"/>
+      <c r="I105" s="176"/>
+      <c r="J105" s="177"/>
+      <c r="K105" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="L105" s="93"/>
-      <c r="M105" s="130"/>
-      <c r="N105" s="130"/>
+      <c r="L105" s="113"/>
+      <c r="M105" s="119"/>
+      <c r="N105" s="119"/>
       <c r="O105" s="19"/>
       <c r="P105" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="Q105" s="130"/>
-      <c r="R105" s="130"/>
+      <c r="Q105" s="119"/>
+      <c r="R105" s="119"/>
       <c r="S105" s="16"/>
       <c r="T105" s="48"/>
     </row>
@@ -10993,26 +11049,26 @@
     </row>
     <row r="107" spans="1:20" ht="13.8" hidden="1">
       <c r="A107" s="47"/>
-      <c r="B107" s="105" t="s">
+      <c r="B107" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="C107" s="105"/>
-      <c r="D107" s="105"/>
-      <c r="E107" s="105"/>
-      <c r="F107" s="105"/>
-      <c r="G107" s="105"/>
-      <c r="H107" s="105"/>
-      <c r="I107" s="105"/>
-      <c r="J107" s="105"/>
-      <c r="K107" s="105"/>
-      <c r="L107" s="105"/>
-      <c r="M107" s="105"/>
-      <c r="N107" s="105"/>
-      <c r="O107" s="105"/>
-      <c r="P107" s="105"/>
-      <c r="Q107" s="105"/>
-      <c r="R107" s="105"/>
-      <c r="S107" s="105"/>
+      <c r="C107" s="112"/>
+      <c r="D107" s="112"/>
+      <c r="E107" s="112"/>
+      <c r="F107" s="112"/>
+      <c r="G107" s="112"/>
+      <c r="H107" s="112"/>
+      <c r="I107" s="112"/>
+      <c r="J107" s="112"/>
+      <c r="K107" s="112"/>
+      <c r="L107" s="112"/>
+      <c r="M107" s="112"/>
+      <c r="N107" s="112"/>
+      <c r="O107" s="112"/>
+      <c r="P107" s="112"/>
+      <c r="Q107" s="112"/>
+      <c r="R107" s="112"/>
+      <c r="S107" s="112"/>
       <c r="T107" s="48"/>
     </row>
     <row r="108" spans="1:20" ht="13.8" hidden="1">
@@ -11045,23 +11101,23 @@
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
-      <c r="F109" s="159"/>
-      <c r="G109" s="148"/>
-      <c r="H109" s="148"/>
+      <c r="F109" s="178"/>
+      <c r="G109" s="100"/>
+      <c r="H109" s="100"/>
       <c r="I109" s="8"/>
-      <c r="J109" s="92" t="s">
+      <c r="J109" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="K109" s="93"/>
-      <c r="L109" s="148"/>
-      <c r="M109" s="148"/>
+      <c r="K109" s="113"/>
+      <c r="L109" s="100"/>
+      <c r="M109" s="100"/>
       <c r="N109" s="8"/>
-      <c r="O109" s="92" t="s">
+      <c r="O109" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="P109" s="93"/>
-      <c r="Q109" s="148"/>
-      <c r="R109" s="148"/>
+      <c r="P109" s="113"/>
+      <c r="Q109" s="100"/>
+      <c r="R109" s="100"/>
       <c r="S109" s="16"/>
       <c r="T109" s="48"/>
     </row>
@@ -11101,15 +11157,15 @@
       <c r="I111" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K111" s="148"/>
-      <c r="L111" s="148"/>
+      <c r="K111" s="100"/>
+      <c r="L111" s="100"/>
       <c r="M111" s="8"/>
-      <c r="N111" s="90" t="s">
+      <c r="N111" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="O111" s="90"/>
-      <c r="P111" s="154"/>
-      <c r="Q111" s="155"/>
+      <c r="O111" s="104"/>
+      <c r="P111" s="173"/>
+      <c r="Q111" s="174"/>
       <c r="R111" s="8"/>
       <c r="S111" s="16"/>
       <c r="T111" s="48"/>
@@ -11142,18 +11198,18 @@
       <c r="C113" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G113" s="153"/>
-      <c r="H113" s="153"/>
-      <c r="I113" s="153"/>
-      <c r="L113" s="90" t="s">
+      <c r="G113" s="179"/>
+      <c r="H113" s="179"/>
+      <c r="I113" s="179"/>
+      <c r="L113" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="M113" s="90"/>
-      <c r="N113" s="90"/>
-      <c r="O113" s="152"/>
-      <c r="P113" s="153"/>
-      <c r="Q113" s="153"/>
-      <c r="R113" s="153"/>
+      <c r="M113" s="104"/>
+      <c r="N113" s="104"/>
+      <c r="O113" s="105"/>
+      <c r="P113" s="179"/>
+      <c r="Q113" s="179"/>
+      <c r="R113" s="179"/>
       <c r="S113" s="16"/>
       <c r="T113" s="48"/>
       <c r="U113" s="5"/>
@@ -11189,20 +11245,20 @@
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
-      <c r="G115" s="91"/>
-      <c r="H115" s="91"/>
-      <c r="I115" s="91"/>
-      <c r="J115" s="91"/>
-      <c r="K115" s="91"/>
-      <c r="L115" s="91"/>
-      <c r="M115" s="91"/>
-      <c r="N115" s="126" t="s">
+      <c r="G115" s="94"/>
+      <c r="H115" s="94"/>
+      <c r="I115" s="94"/>
+      <c r="J115" s="94"/>
+      <c r="K115" s="94"/>
+      <c r="L115" s="94"/>
+      <c r="M115" s="94"/>
+      <c r="N115" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="O115" s="92"/>
-      <c r="P115" s="91"/>
-      <c r="Q115" s="91"/>
-      <c r="R115" s="91"/>
+      <c r="O115" s="107"/>
+      <c r="P115" s="94"/>
+      <c r="Q115" s="94"/>
+      <c r="R115" s="94"/>
       <c r="S115" s="16"/>
       <c r="T115" s="48"/>
       <c r="U115" s="5"/>
@@ -11267,8 +11323,8 @@
       <c r="K118" s="29"/>
       <c r="L118" s="29"/>
       <c r="M118" s="30"/>
-      <c r="N118" s="89"/>
-      <c r="O118" s="89"/>
+      <c r="N118" s="152"/>
+      <c r="O118" s="152"/>
       <c r="P118" s="31"/>
       <c r="Q118" s="31"/>
       <c r="R118" s="32"/>
@@ -11280,26 +11336,26 @@
       <c r="A119" s="47"/>
       <c r="B119" s="34"/>
       <c r="C119" s="8"/>
-      <c r="D119" s="90" t="s">
+      <c r="D119" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="E119" s="90"/>
-      <c r="F119" s="90"/>
-      <c r="G119" s="90"/>
-      <c r="H119" s="90"/>
-      <c r="I119" s="90" t="s">
+      <c r="E119" s="104"/>
+      <c r="F119" s="104"/>
+      <c r="G119" s="104"/>
+      <c r="H119" s="104"/>
+      <c r="I119" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="J119" s="90"/>
-      <c r="K119" s="90"/>
-      <c r="L119" s="90"/>
-      <c r="N119" s="90" t="s">
+      <c r="J119" s="104"/>
+      <c r="K119" s="104"/>
+      <c r="L119" s="104"/>
+      <c r="N119" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="O119" s="90"/>
-      <c r="P119" s="90"/>
-      <c r="Q119" s="90"/>
-      <c r="R119" s="90"/>
+      <c r="O119" s="104"/>
+      <c r="P119" s="104"/>
+      <c r="Q119" s="104"/>
+      <c r="R119" s="104"/>
       <c r="S119" s="35"/>
       <c r="T119" s="48"/>
       <c r="U119" s="5"/>
@@ -11387,19 +11443,19 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
-      <c r="I123" s="137" t="s">
+      <c r="I123" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="J123" s="137"/>
-      <c r="K123" s="137"/>
-      <c r="L123" s="137"/>
-      <c r="N123" s="137" t="s">
+      <c r="J123" s="108"/>
+      <c r="K123" s="108"/>
+      <c r="L123" s="108"/>
+      <c r="N123" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="O123" s="137"/>
-      <c r="P123" s="137"/>
-      <c r="Q123" s="137"/>
-      <c r="R123" s="137"/>
+      <c r="O123" s="108"/>
+      <c r="P123" s="108"/>
+      <c r="Q123" s="108"/>
+      <c r="R123" s="108"/>
       <c r="S123" s="35"/>
       <c r="T123" s="48"/>
       <c r="U123" s="5"/>
@@ -11408,26 +11464,26 @@
       <c r="A124" s="47"/>
       <c r="B124" s="34"/>
       <c r="C124" s="8"/>
-      <c r="D124" s="90" t="s">
+      <c r="D124" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="E124" s="90"/>
-      <c r="F124" s="90"/>
-      <c r="G124" s="90"/>
-      <c r="H124" s="90"/>
-      <c r="I124" s="90" t="s">
+      <c r="E124" s="104"/>
+      <c r="F124" s="104"/>
+      <c r="G124" s="104"/>
+      <c r="H124" s="104"/>
+      <c r="I124" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="J124" s="90"/>
-      <c r="K124" s="90"/>
-      <c r="L124" s="90"/>
-      <c r="N124" s="90" t="s">
+      <c r="J124" s="104"/>
+      <c r="K124" s="104"/>
+      <c r="L124" s="104"/>
+      <c r="N124" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="O124" s="90"/>
-      <c r="P124" s="90"/>
-      <c r="Q124" s="90"/>
-      <c r="R124" s="90"/>
+      <c r="O124" s="104"/>
+      <c r="P124" s="104"/>
+      <c r="Q124" s="104"/>
+      <c r="R124" s="104"/>
       <c r="S124" s="35"/>
       <c r="T124" s="48"/>
     </row>
@@ -11478,36 +11534,68 @@
     <row r="127" spans="1:21" ht="13.8" hidden="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="I123:L123"/>
-    <mergeCell ref="N123:R123"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="I124:L124"/>
-    <mergeCell ref="N124:R124"/>
-    <mergeCell ref="N118:O118"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="I119:L119"/>
-    <mergeCell ref="N119:R119"/>
-    <mergeCell ref="G115:M115"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P115:R115"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="P113:R113"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:J105"/>
-    <mergeCell ref="K105:L105"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="C96:D98"/>
-    <mergeCell ref="E96:R98"/>
-    <mergeCell ref="C100:D101"/>
-    <mergeCell ref="E100:I101"/>
-    <mergeCell ref="K100:L101"/>
-    <mergeCell ref="M100:R101"/>
+    <mergeCell ref="A59:S59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F62:L62"/>
+    <mergeCell ref="F63:L63"/>
+    <mergeCell ref="F61:L61"/>
+    <mergeCell ref="M63:T63"/>
+    <mergeCell ref="M62:T62"/>
+    <mergeCell ref="M61:T61"/>
+    <mergeCell ref="B23:S23"/>
+    <mergeCell ref="B4:S4"/>
+    <mergeCell ref="B5:S5"/>
+    <mergeCell ref="B6:S6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="B13:S13"/>
+    <mergeCell ref="C20:E21"/>
+    <mergeCell ref="G20:R21"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:R30"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B39:S39"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="E37:O37"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="G47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="N57:R57"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="N56:R56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:R49"/>
     <mergeCell ref="B68:S68"/>
     <mergeCell ref="B69:S69"/>
     <mergeCell ref="B70:S70"/>
@@ -11532,68 +11620,36 @@
     <mergeCell ref="B77:S77"/>
     <mergeCell ref="C84:E88"/>
     <mergeCell ref="G84:R88"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="G47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="N57:R57"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="N52:R52"/>
-    <mergeCell ref="N56:R56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:R49"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B39:S39"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="E37:O37"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:R30"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="B23:S23"/>
-    <mergeCell ref="B4:S4"/>
-    <mergeCell ref="B5:S5"/>
-    <mergeCell ref="B6:S6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="B13:S13"/>
-    <mergeCell ref="C20:E21"/>
-    <mergeCell ref="G20:R21"/>
-    <mergeCell ref="A59:S59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F62:L62"/>
-    <mergeCell ref="F63:L63"/>
-    <mergeCell ref="F61:L61"/>
-    <mergeCell ref="M63:T63"/>
-    <mergeCell ref="M62:T62"/>
-    <mergeCell ref="M61:T61"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:J105"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="C96:D98"/>
+    <mergeCell ref="E96:R98"/>
+    <mergeCell ref="C100:D101"/>
+    <mergeCell ref="E100:I101"/>
+    <mergeCell ref="K100:L101"/>
+    <mergeCell ref="M100:R101"/>
+    <mergeCell ref="G115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P115:R115"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="P113:R113"/>
+    <mergeCell ref="I123:L123"/>
+    <mergeCell ref="N123:R123"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="I124:L124"/>
+    <mergeCell ref="N124:R124"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="I119:L119"/>
+    <mergeCell ref="N119:R119"/>
   </mergeCells>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11806,72 +11862,72 @@
     </row>
     <row r="4" spans="1:20" ht="15.6">
       <c r="A4" s="47"/>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="98"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="128"/>
       <c r="T4" s="48"/>
     </row>
     <row r="5" spans="1:20" ht="14.4" thickBot="1">
       <c r="A5" s="47"/>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="101"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="131"/>
       <c r="T5" s="48"/>
     </row>
     <row r="6" spans="1:20" ht="5.25" customHeight="1">
       <c r="A6" s="47"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="104"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="134"/>
       <c r="T6" s="48"/>
     </row>
     <row r="7" spans="1:20" ht="2.25" customHeight="1">
@@ -11883,28 +11939,28 @@
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="A8" s="47"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="95"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="118"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="115" t="s">
+      <c r="O8" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="148" t="s">
+      <c r="P8" s="145"/>
+      <c r="Q8" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="R8" s="148"/>
+      <c r="R8" s="100"/>
       <c r="S8" s="39"/>
       <c r="T8" s="48"/>
     </row>
@@ -11940,19 +11996,19 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="229"/>
-      <c r="I10" s="230"/>
-      <c r="J10" s="230"/>
-      <c r="K10" s="230"/>
-      <c r="L10" s="230"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="223"/>
+      <c r="K10" s="223"/>
+      <c r="L10" s="223"/>
       <c r="M10" s="12" t="s">
         <v>33</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
       <c r="S10" s="39"/>
       <c r="T10" s="48"/>
     </row>
@@ -11986,26 +12042,26 @@
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
       <c r="A13" s="47"/>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="105"/>
-      <c r="S13" s="105"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="112"/>
       <c r="T13" s="48"/>
     </row>
     <row r="14" spans="1:20" ht="5.25" customHeight="1">
@@ -12069,46 +12125,46 @@
     <row r="20" spans="1:20" ht="11.25" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="138" t="s">
+      <c r="C20" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="223"/>
-      <c r="H20" s="224"/>
-      <c r="I20" s="224"/>
-      <c r="J20" s="224"/>
-      <c r="K20" s="224"/>
-      <c r="L20" s="224"/>
-      <c r="M20" s="224"/>
-      <c r="N20" s="224"/>
-      <c r="O20" s="224"/>
-      <c r="P20" s="224"/>
-      <c r="Q20" s="224"/>
-      <c r="R20" s="225"/>
+      <c r="G20" s="216"/>
+      <c r="H20" s="217"/>
+      <c r="I20" s="217"/>
+      <c r="J20" s="217"/>
+      <c r="K20" s="217"/>
+      <c r="L20" s="217"/>
+      <c r="M20" s="217"/>
+      <c r="N20" s="217"/>
+      <c r="O20" s="217"/>
+      <c r="P20" s="217"/>
+      <c r="Q20" s="217"/>
+      <c r="R20" s="218"/>
       <c r="S20" s="4"/>
       <c r="T20" s="48"/>
     </row>
     <row r="21" spans="1:20" ht="11.25" customHeight="1" thickBot="1">
       <c r="A21" s="47"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="226"/>
-      <c r="H21" s="227"/>
-      <c r="I21" s="227"/>
-      <c r="J21" s="227"/>
-      <c r="K21" s="227"/>
-      <c r="L21" s="227"/>
-      <c r="M21" s="227"/>
-      <c r="N21" s="227"/>
-      <c r="O21" s="227"/>
-      <c r="P21" s="227"/>
-      <c r="Q21" s="227"/>
-      <c r="R21" s="228"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="220"/>
+      <c r="I21" s="220"/>
+      <c r="J21" s="220"/>
+      <c r="K21" s="220"/>
+      <c r="L21" s="220"/>
+      <c r="M21" s="220"/>
+      <c r="N21" s="220"/>
+      <c r="O21" s="220"/>
+      <c r="P21" s="220"/>
+      <c r="Q21" s="220"/>
+      <c r="R21" s="221"/>
       <c r="S21" s="4"/>
       <c r="T21" s="48"/>
     </row>
@@ -12120,26 +12176,26 @@
     </row>
     <row r="23" spans="1:20" ht="13.8">
       <c r="A23" s="47"/>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="105"/>
-      <c r="R23" s="105"/>
-      <c r="S23" s="105"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="112"/>
       <c r="T23" s="48"/>
     </row>
     <row r="24" spans="1:20" ht="7.5" customHeight="1">
@@ -12203,26 +12259,26 @@
     <row r="27" spans="1:20" ht="15.75" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="118" t="s">
+      <c r="C27" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="118"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="216"/>
-      <c r="G27" s="216"/>
-      <c r="H27" s="216"/>
-      <c r="I27" s="216"/>
-      <c r="J27" s="216"/>
-      <c r="K27" s="117" t="s">
+      <c r="D27" s="147"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="224"/>
+      <c r="G27" s="224"/>
+      <c r="H27" s="224"/>
+      <c r="I27" s="224"/>
+      <c r="J27" s="224"/>
+      <c r="K27" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="L27" s="118"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
       <c r="S27" s="16"/>
       <c r="T27" s="48"/>
     </row>
@@ -12251,46 +12307,46 @@
     <row r="29" spans="1:20" ht="13.8">
       <c r="A29" s="47"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="124" t="s">
+      <c r="C29" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="124"/>
-      <c r="E29" s="217"/>
-      <c r="F29" s="218"/>
-      <c r="G29" s="218"/>
-      <c r="H29" s="218"/>
-      <c r="I29" s="218"/>
-      <c r="J29" s="218"/>
-      <c r="K29" s="218"/>
-      <c r="L29" s="218"/>
-      <c r="M29" s="218"/>
-      <c r="N29" s="218"/>
-      <c r="O29" s="218"/>
-      <c r="P29" s="218"/>
-      <c r="Q29" s="218"/>
-      <c r="R29" s="219"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="225"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="226"/>
+      <c r="H29" s="226"/>
+      <c r="I29" s="226"/>
+      <c r="J29" s="226"/>
+      <c r="K29" s="226"/>
+      <c r="L29" s="226"/>
+      <c r="M29" s="226"/>
+      <c r="N29" s="226"/>
+      <c r="O29" s="226"/>
+      <c r="P29" s="226"/>
+      <c r="Q29" s="226"/>
+      <c r="R29" s="227"/>
       <c r="S29" s="16"/>
       <c r="T29" s="48"/>
     </row>
     <row r="30" spans="1:20" ht="14.25" customHeight="1">
       <c r="A30" s="47"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="220"/>
-      <c r="F30" s="221"/>
-      <c r="G30" s="221"/>
-      <c r="H30" s="221"/>
-      <c r="I30" s="221"/>
-      <c r="J30" s="221"/>
-      <c r="K30" s="221"/>
-      <c r="L30" s="221"/>
-      <c r="M30" s="221"/>
-      <c r="N30" s="221"/>
-      <c r="O30" s="221"/>
-      <c r="P30" s="221"/>
-      <c r="Q30" s="221"/>
-      <c r="R30" s="222"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="228"/>
+      <c r="F30" s="229"/>
+      <c r="G30" s="229"/>
+      <c r="H30" s="229"/>
+      <c r="I30" s="229"/>
+      <c r="J30" s="229"/>
+      <c r="K30" s="229"/>
+      <c r="L30" s="229"/>
+      <c r="M30" s="229"/>
+      <c r="N30" s="229"/>
+      <c r="O30" s="229"/>
+      <c r="P30" s="229"/>
+      <c r="Q30" s="229"/>
+      <c r="R30" s="230"/>
       <c r="S30" s="17"/>
       <c r="T30" s="48"/>
     </row>
@@ -12319,48 +12375,48 @@
     <row r="32" spans="1:20" ht="12.75" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="124" t="s">
+      <c r="C32" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="124"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="124" t="s">
+      <c r="K32" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="125"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="91"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="94"/>
       <c r="S32" s="16"/>
       <c r="T32" s="48"/>
     </row>
     <row r="33" spans="1:28" ht="11.25" customHeight="1">
       <c r="A33" s="47"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="91"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
       <c r="S33" s="16"/>
       <c r="T33" s="48"/>
     </row>
@@ -12394,9 +12450,9 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
       <c r="I35" s="8" t="s">
         <v>32</v>
       </c>
@@ -12406,8 +12462,8 @@
       </c>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="106"/>
+      <c r="N35" s="135"/>
+      <c r="O35" s="135"/>
       <c r="P35" s="8" t="s">
         <v>32</v>
       </c>
@@ -12455,17 +12511,17 @@
       <c r="L37" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="M37" s="130">
+      <c r="M37" s="119">
         <f>+L35/+U37</f>
         <v>0</v>
       </c>
-      <c r="N37" s="130"/>
+      <c r="N37" s="119"/>
       <c r="O37" s="19"/>
       <c r="P37" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="Q37" s="130"/>
-      <c r="R37" s="130"/>
+      <c r="Q37" s="119"/>
+      <c r="R37" s="119"/>
       <c r="S37" s="16"/>
       <c r="T37" s="48"/>
       <c r="U37">
@@ -12496,26 +12552,26 @@
     </row>
     <row r="39" spans="1:28" ht="17.25" customHeight="1">
       <c r="A39" s="47"/>
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
-      <c r="O39" s="105"/>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="105"/>
-      <c r="R39" s="105"/>
-      <c r="S39" s="105"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="112"/>
+      <c r="H39" s="112"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="112"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="112"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="112"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="112"/>
+      <c r="R39" s="112"/>
+      <c r="S39" s="112"/>
       <c r="T39" s="48"/>
     </row>
     <row r="40" spans="1:28" ht="6" customHeight="1">
@@ -12548,23 +12604,23 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="92" t="s">
+      <c r="J41" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="K41" s="93"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
       <c r="N41" s="8"/>
-      <c r="O41" s="92" t="s">
+      <c r="O41" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="91"/>
-      <c r="R41" s="91"/>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="94"/>
       <c r="S41" s="16"/>
       <c r="T41" s="48"/>
     </row>
@@ -12604,15 +12660,15 @@
       <c r="I43" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="91"/>
-      <c r="L43" s="91"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="94"/>
       <c r="M43" s="8"/>
-      <c r="N43" s="90" t="s">
+      <c r="N43" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="90"/>
-      <c r="P43" s="94"/>
-      <c r="Q43" s="95"/>
+      <c r="O43" s="104"/>
+      <c r="P43" s="116"/>
+      <c r="Q43" s="118"/>
       <c r="R43" s="8"/>
       <c r="S43" s="16"/>
       <c r="T43" s="48"/>
@@ -12645,18 +12701,18 @@
       <c r="C45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="151"/>
-      <c r="H45" s="151"/>
-      <c r="I45" s="151"/>
-      <c r="L45" s="90" t="s">
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="L45" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="M45" s="90"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="152"/>
-      <c r="P45" s="151"/>
-      <c r="Q45" s="151"/>
-      <c r="R45" s="151"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="103"/>
+      <c r="Q45" s="103"/>
+      <c r="R45" s="103"/>
       <c r="S45" s="16"/>
       <c r="T45" s="48"/>
       <c r="U45" s="5"/>
@@ -12706,20 +12762,20 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="91"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="126" t="s">
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="O47" s="92"/>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="91"/>
-      <c r="R47" s="91"/>
+      <c r="O47" s="107"/>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="94"/>
+      <c r="R47" s="94"/>
       <c r="S47" s="16"/>
       <c r="T47" s="48"/>
       <c r="U47" s="5"/>
@@ -12764,24 +12820,24 @@
     <row r="49" spans="1:28" ht="13.8">
       <c r="A49" s="47"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="149" t="s">
+      <c r="C49" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="149"/>
-      <c r="E49" s="149"/>
-      <c r="F49" s="149"/>
-      <c r="G49" s="149"/>
-      <c r="H49" s="149"/>
-      <c r="I49" s="149"/>
-      <c r="J49" s="149"/>
-      <c r="K49" s="149"/>
-      <c r="L49" s="149"/>
-      <c r="M49" s="149"/>
-      <c r="N49" s="149"/>
-      <c r="O49" s="149"/>
-      <c r="P49" s="149"/>
-      <c r="Q49" s="149"/>
-      <c r="R49" s="149"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="101"/>
+      <c r="J49" s="101"/>
+      <c r="K49" s="101"/>
+      <c r="L49" s="101"/>
+      <c r="M49" s="101"/>
+      <c r="N49" s="101"/>
+      <c r="O49" s="101"/>
+      <c r="P49" s="101"/>
+      <c r="Q49" s="101"/>
+      <c r="R49" s="101"/>
       <c r="S49" s="16"/>
       <c r="T49" s="48"/>
       <c r="U49" s="5"/>
@@ -12826,16 +12882,16 @@
     <row r="51" spans="1:28" ht="15.75" customHeight="1">
       <c r="A51" s="47"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="146" t="s">
+      <c r="C51" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="147"/>
+      <c r="D51" s="99"/>
       <c r="E51" s="25"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="147" t="s">
+      <c r="G51" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="H51" s="150"/>
+      <c r="H51" s="102"/>
       <c r="I51" s="25"/>
       <c r="J51" s="24"/>
       <c r="K51" s="12" t="s">
@@ -12844,8 +12900,8 @@
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
-      <c r="O51" s="151"/>
-      <c r="P51" s="151"/>
+      <c r="O51" s="103"/>
+      <c r="P51" s="103"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="16"/>
       <c r="S51" s="16"/>
@@ -12892,24 +12948,24 @@
     <row r="53" spans="1:28" ht="16.05" customHeight="1">
       <c r="A53" s="47"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="146" t="s">
+      <c r="C53" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="147"/>
-      <c r="E53" s="147"/>
-      <c r="F53" s="147"/>
-      <c r="G53" s="148"/>
-      <c r="H53" s="148"/>
-      <c r="I53" s="148"/>
-      <c r="J53" s="148"/>
-      <c r="K53" s="148"/>
-      <c r="L53" s="148"/>
-      <c r="M53" s="148"/>
-      <c r="N53" s="148"/>
-      <c r="O53" s="148"/>
-      <c r="P53" s="148"/>
-      <c r="Q53" s="148"/>
-      <c r="R53" s="148"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="100"/>
+      <c r="K53" s="100"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="100"/>
+      <c r="O53" s="100"/>
+      <c r="P53" s="100"/>
+      <c r="Q53" s="100"/>
+      <c r="R53" s="100"/>
       <c r="S53" s="16"/>
       <c r="T53" s="48"/>
       <c r="U53" s="5"/>
@@ -12995,8 +13051,8 @@
       <c r="K56" s="29"/>
       <c r="L56" s="29"/>
       <c r="M56" s="30"/>
-      <c r="N56" s="89"/>
-      <c r="O56" s="89"/>
+      <c r="N56" s="152"/>
+      <c r="O56" s="152"/>
       <c r="P56" s="31"/>
       <c r="Q56" s="31"/>
       <c r="R56" s="32"/>
@@ -13015,26 +13071,26 @@
       <c r="A57" s="47"/>
       <c r="B57" s="34"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="90" t="s">
+      <c r="D57" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90" t="s">
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="N57" s="90" t="s">
+      <c r="J57" s="104"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="104"/>
+      <c r="N57" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="O57" s="90"/>
-      <c r="P57" s="90"/>
-      <c r="Q57" s="90"/>
-      <c r="R57" s="90"/>
+      <c r="O57" s="104"/>
+      <c r="P57" s="104"/>
+      <c r="Q57" s="104"/>
+      <c r="R57" s="104"/>
       <c r="S57" s="35"/>
       <c r="T57" s="48"/>
       <c r="U57" s="5"/>
@@ -13137,26 +13193,26 @@
       <c r="A61" s="47"/>
       <c r="B61" s="34"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="90" t="s">
+      <c r="D61" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="90"/>
-      <c r="I61" s="90" t="s">
+      <c r="E61" s="104"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
+      <c r="I61" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="J61" s="90"/>
-      <c r="K61" s="90"/>
-      <c r="L61" s="90"/>
-      <c r="N61" s="90" t="s">
+      <c r="J61" s="104"/>
+      <c r="K61" s="104"/>
+      <c r="L61" s="104"/>
+      <c r="N61" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="O61" s="90"/>
-      <c r="P61" s="90"/>
-      <c r="Q61" s="90"/>
-      <c r="R61" s="90"/>
+      <c r="O61" s="104"/>
+      <c r="P61" s="104"/>
+      <c r="Q61" s="104"/>
+      <c r="R61" s="104"/>
       <c r="S61" s="35"/>
       <c r="T61" s="48"/>
       <c r="U61" s="5"/>
@@ -13172,24 +13228,24 @@
       <c r="A62" s="47"/>
       <c r="B62" s="34"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90" t="s">
+      <c r="D62" s="104"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
+      <c r="I62" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="J62" s="90"/>
-      <c r="K62" s="90"/>
-      <c r="L62" s="90"/>
-      <c r="N62" s="90" t="s">
+      <c r="J62" s="104"/>
+      <c r="K62" s="104"/>
+      <c r="L62" s="104"/>
+      <c r="N62" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="O62" s="90"/>
-      <c r="P62" s="90"/>
-      <c r="Q62" s="90"/>
-      <c r="R62" s="90"/>
+      <c r="O62" s="104"/>
+      <c r="P62" s="104"/>
+      <c r="Q62" s="104"/>
+      <c r="R62" s="104"/>
       <c r="S62" s="35"/>
       <c r="T62" s="48"/>
       <c r="AB62" s="27"/>
@@ -13397,6 +13453,51 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="N61:R61"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="N62:R62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="G53:R53"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="N57:R57"/>
+    <mergeCell ref="G47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="C49:R49"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="B39:S39"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:I33"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="M32:R33"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:R30"/>
     <mergeCell ref="B23:S23"/>
     <mergeCell ref="B4:S4"/>
     <mergeCell ref="B5:S5"/>
@@ -13410,51 +13511,6 @@
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="G20:R21"/>
     <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:R30"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:I33"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="M32:R33"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="B39:S39"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="G47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="C49:R49"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="G53:R53"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="N57:R57"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="N61:R61"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="N62:R62"/>
   </mergeCells>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
   <pageSetup scale="105" orientation="portrait" r:id="rId1"/>

--- a/webapp/output/mobper/MobPer_8490_20260116.xlsx
+++ b/webapp/output/mobper/MobPer_8490_20260116.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulc\Downloads\debug biostar para checadores\webapp\output\mobper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0564D15A-2881-4466-A45D-D2F8413EDA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BADD794-CD40-4090-AC62-306AEB56572F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,7 +335,7 @@
     <t>RAÚL CETINA</t>
   </si>
   <si>
-    <t>DISEÑO</t>
+    <t>IT</t>
   </si>
   <si>
     <t>16,19,20,21,22,27,28 de enero</t>
